--- a/matlab/statistics/rawdataAnovaLoudnessDiffThresholdWithout9Sub.xlsx
+++ b/matlab/statistics/rawdataAnovaLoudnessDiffThresholdWithout9Sub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\thesis\matlab\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D722340-3786-4CE4-B0F3-36D1B7F55205}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9C8071-FA6A-47F5-9F17-C0D41C599CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{7AF3A03D-CE9E-409E-9E62-EADF04CEEE14}"/>
   </bookViews>
@@ -76,6 +76,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,9 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,7 +433,7 @@
   <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,16 +492,15 @@
       <c r="F2">
         <v>17.127966933867736</v>
       </c>
-      <c r="G2" s="1">
-        <f>FLOOR(F2,1)</f>
-        <v>17</v>
+      <c r="G2" s="2">
+        <v>17.127966933867736</v>
       </c>
       <c r="H2" s="1">
         <v>13</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <f>G2-H2</f>
-        <v>4</v>
+        <v>4.1279669338677358</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -517,16 +522,15 @@
       <c r="F3">
         <v>16.848982965931867</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G63" si="0">FLOOR(F3,1)</f>
-        <v>16</v>
+      <c r="G3" s="2">
+        <v>16.848982965931867</v>
       </c>
       <c r="H3" s="1">
         <v>13</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I63" si="1">G3-H3</f>
-        <v>3</v>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I66" si="0">G3-H3</f>
+        <v>3.8489829659318673</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -548,16 +552,15 @@
       <c r="F4">
         <v>17.986943887775549</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="G4" s="2">
+        <v>17.986943887775549</v>
       </c>
       <c r="H4" s="1">
         <v>13</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9869438877755492</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -579,16 +582,15 @@
       <c r="F5">
         <v>17.399609218436876</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="G5" s="2">
+        <v>17.399609218436876</v>
       </c>
       <c r="H5" s="1">
         <v>13</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3996092184368756</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -610,16 +612,15 @@
       <c r="F6">
         <v>16.210256513026053</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="G6" s="2">
+        <v>16.210256513026053</v>
       </c>
       <c r="H6" s="1">
         <v>13</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.210256513026053</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -641,16 +642,15 @@
       <c r="F7">
         <v>17.03986673346693</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="G7" s="2">
+        <v>17.03986673346693</v>
       </c>
       <c r="H7" s="1">
         <v>13</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0398667334669298</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -672,16 +672,15 @@
       <c r="F8">
         <v>20.196790581162325</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="G8" s="2">
+        <v>20.196790581162325</v>
       </c>
       <c r="H8" s="1">
         <v>13</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1967905811623254</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -703,16 +702,15 @@
       <c r="F9">
         <v>17.906185370741483</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" ref="G9" si="2">FLOOR(F9,1)</f>
-        <v>17</v>
+      <c r="G9" s="2">
+        <v>17.906185370741483</v>
       </c>
       <c r="H9" s="1">
         <v>13</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" ref="I9" si="3">G9-H9</f>
-        <v>4</v>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9061853707414826</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -732,18 +730,17 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>17.906185370741483</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20.673999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20.673999999999999</v>
       </c>
       <c r="H10" s="1">
         <v>13</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6739999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -765,16 +762,15 @@
       <c r="F11">
         <v>17.054550100200405</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" ref="G11" si="4">FLOOR(F11,1)</f>
-        <v>17</v>
+      <c r="G11" s="2">
+        <v>17.054550100200405</v>
       </c>
       <c r="H11" s="1">
         <v>13</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" ref="I11" si="5">G11-H11</f>
-        <v>4</v>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0545501002004052</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -782,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -794,18 +790,17 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>17.054550100200405</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20.673999999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20.673999999999999</v>
       </c>
       <c r="H12" s="1">
         <v>13</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6739999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -827,16 +822,15 @@
       <c r="F13">
         <v>17.326192384769541</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="G13" s="2">
+        <v>17.326192384769541</v>
       </c>
       <c r="H13" s="1">
         <v>13</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3261923847695414</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -858,16 +852,15 @@
       <c r="F14">
         <v>19.499330661322649</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
+      <c r="G14" s="2">
+        <v>19.499330661322649</v>
       </c>
       <c r="H14" s="1">
         <v>13</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4993306613226487</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -889,16 +882,15 @@
       <c r="F15">
         <v>18.97807114228457</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+      <c r="G15" s="2">
+        <v>18.97807114228457</v>
       </c>
       <c r="H15" s="1">
         <v>13</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9780711422845698</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -920,16 +912,15 @@
       <c r="F16">
         <v>18.677062124248501</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+      <c r="G16" s="2">
+        <v>18.677062124248501</v>
       </c>
       <c r="H16" s="1">
         <v>13</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6770621242485007</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -951,16 +942,15 @@
       <c r="F17">
         <v>20.380332665330663</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="G17" s="2">
+        <v>20.380332665330663</v>
       </c>
       <c r="H17" s="1">
         <v>13</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3803326653306627</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -982,16 +972,15 @@
       <c r="F18">
         <v>17.428975951903809</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="G18" s="2">
+        <v>17.428975951903809</v>
       </c>
       <c r="H18" s="1">
         <v>13</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4289759519038086</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1013,16 +1002,15 @@
       <c r="F19">
         <v>20.101348697394787</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="G19" s="2">
+        <v>20.101348697394787</v>
       </c>
       <c r="H19" s="1">
         <v>13</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>7.101348697394787</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1044,16 +1032,15 @@
       <c r="F20">
         <v>16.8563246492986</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="G20" s="2">
+        <v>16.8563246492986</v>
       </c>
       <c r="H20" s="1">
         <v>13</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8563246492985996</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1075,16 +1062,15 @@
       <c r="F21">
         <v>45.949304609218423</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="G21" s="2">
+        <v>45.949304609218423</v>
       </c>
       <c r="H21" s="1">
         <v>40</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>5.949304609218423</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1106,16 +1092,15 @@
       <c r="F22">
         <v>46.374649298597198</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="G22" s="2">
+        <v>46.374649298597198</v>
       </c>
       <c r="H22" s="1">
         <v>40</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3746492985971983</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1137,16 +1122,15 @@
       <c r="F23">
         <v>46.043825651302598</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="G23" s="2">
+        <v>46.043825651302598</v>
       </c>
       <c r="H23" s="1">
         <v>40</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0438256513025976</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1168,16 +1152,15 @@
       <c r="F24">
         <v>46.941775551102189</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="G24" s="2">
+        <v>46.941775551102189</v>
       </c>
       <c r="H24" s="1">
         <v>40</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9417755511021895</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1199,16 +1182,15 @@
       <c r="F25">
         <v>44.153404809619239</v>
       </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="G25" s="2">
+        <v>44.153404809619239</v>
       </c>
       <c r="H25" s="1">
         <v>40</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1534048096192393</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1230,16 +1212,15 @@
       <c r="F26">
         <v>46.303758517034069</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="G26" s="2">
+        <v>46.303758517034069</v>
       </c>
       <c r="H26" s="1">
         <v>40</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3037585170340691</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1261,16 +1242,15 @@
       <c r="F27">
         <v>40.585235470941882</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="G27" s="2">
+        <v>40.585235470941882</v>
       </c>
       <c r="H27" s="1">
         <v>40</v>
       </c>
-      <c r="I27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58523547094188189</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1292,16 +1272,15 @@
       <c r="F28">
         <v>50.037339679358723</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="G28" s="2">
+        <v>50.037339679358723</v>
       </c>
       <c r="H28" s="1">
         <v>40</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>10.037339679358723</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1323,16 +1302,15 @@
       <c r="F29">
         <v>60.245612224448898</v>
       </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
+      <c r="G29" s="2">
+        <v>60.245612224448898</v>
       </c>
       <c r="H29" s="1">
         <v>40</v>
       </c>
-      <c r="I29" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>20.245612224448898</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1354,16 +1332,15 @@
       <c r="F30">
         <v>46.870884769539074</v>
       </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="G30" s="2">
+        <v>46.870884769539074</v>
       </c>
       <c r="H30" s="1">
         <v>40</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="I30" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8708847695390745</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1385,16 +1362,15 @@
       <c r="F31">
         <v>45.594850701402819</v>
       </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="G31" s="2">
+        <v>45.594850701402819</v>
       </c>
       <c r="H31" s="1">
         <v>40</v>
       </c>
-      <c r="I31" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I31" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5948507014028195</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1416,16 +1392,15 @@
       <c r="F32">
         <v>45.122245490981946</v>
       </c>
-      <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="G32" s="2">
+        <v>45.122245490981946</v>
       </c>
       <c r="H32" s="1">
         <v>40</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I32" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1222454909819461</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1447,16 +1422,15 @@
       <c r="F33">
         <v>42.286614228456912</v>
       </c>
-      <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="G33" s="2">
+        <v>42.286614228456912</v>
       </c>
       <c r="H33" s="1">
         <v>40</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="I33" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2866142284569122</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1478,16 +1452,15 @@
       <c r="F34">
         <v>47.01266633266534</v>
       </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
+      <c r="G34" s="2">
+        <v>47.01266633266534</v>
       </c>
       <c r="H34" s="1">
         <v>40</v>
       </c>
-      <c r="I34" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="I34" s="2">
+        <f t="shared" si="0"/>
+        <v>7.01266633266534</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1509,16 +1482,15 @@
       <c r="F35">
         <v>45.453069138276568</v>
       </c>
-      <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="G35" s="2">
+        <v>45.453069138276568</v>
       </c>
       <c r="H35" s="1">
         <v>40</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I35" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4530691382765681</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1540,16 +1512,15 @@
       <c r="F36">
         <v>45.429438877755523</v>
       </c>
-      <c r="G36" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="G36" s="2">
+        <v>45.429438877755523</v>
       </c>
       <c r="H36" s="1">
         <v>40</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I36" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4294388777555227</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1571,16 +1542,15 @@
       <c r="F37">
         <v>48.099658316633274</v>
       </c>
-      <c r="G37" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
+      <c r="G37" s="2">
+        <v>48.099658316633274</v>
       </c>
       <c r="H37" s="1">
         <v>40</v>
       </c>
-      <c r="I37" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="I37" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0996583166332741</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1602,16 +1572,15 @@
       <c r="F38">
         <v>55.874014028056116</v>
       </c>
-      <c r="G38" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="G38" s="2">
+        <v>55.874014028056116</v>
       </c>
       <c r="H38" s="1">
         <v>40</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="I38" s="2">
+        <f t="shared" si="0"/>
+        <v>15.874014028056116</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1633,16 +1602,15 @@
       <c r="F39">
         <v>40.585235470941882</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="G39" s="2">
+        <v>40.585235470941882</v>
       </c>
       <c r="H39" s="1">
         <v>40</v>
       </c>
-      <c r="I39" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="I39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58523547094188189</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1664,16 +1632,15 @@
       <c r="F40">
         <v>54.839284569138279</v>
       </c>
-      <c r="G40" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
+      <c r="G40" s="2">
+        <v>54.839284569138279</v>
       </c>
       <c r="H40" s="1">
         <v>48</v>
       </c>
-      <c r="I40" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="I40" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8392845691382789</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1695,16 +1662,15 @@
       <c r="F41">
         <v>53.941104208416839</v>
       </c>
-      <c r="G41" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="G41" s="2">
+        <v>53.941104208416839</v>
       </c>
       <c r="H41" s="1">
         <v>48</v>
       </c>
-      <c r="I41" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I41" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9411042084168386</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1726,16 +1692,15 @@
       <c r="F42">
         <v>62.361545090180357</v>
       </c>
-      <c r="G42" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
+      <c r="G42" s="2">
+        <v>62.361545090180357</v>
       </c>
       <c r="H42" s="1">
         <v>48</v>
       </c>
-      <c r="I42" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
+      <c r="I42" s="2">
+        <f t="shared" si="0"/>
+        <v>14.361545090180357</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1757,16 +1722,15 @@
       <c r="F43">
         <v>52.537697394789589</v>
       </c>
-      <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
+      <c r="G43" s="2">
+        <v>52.537697394789589</v>
       </c>
       <c r="H43" s="1">
         <v>48</v>
       </c>
-      <c r="I43" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I43" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5376973947895891</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1788,16 +1752,15 @@
       <c r="F44">
         <v>51.807925851703402</v>
       </c>
-      <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
+      <c r="G44" s="2">
+        <v>51.807925851703402</v>
       </c>
       <c r="H44" s="1">
         <v>48</v>
       </c>
-      <c r="I44" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I44" s="2">
+        <f t="shared" si="0"/>
+        <v>3.807925851703402</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1819,16 +1782,15 @@
       <c r="F45">
         <v>51.864062124248491</v>
       </c>
-      <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
+      <c r="G45" s="2">
+        <v>51.864062124248491</v>
       </c>
       <c r="H45" s="1">
         <v>48</v>
       </c>
-      <c r="I45" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I45" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8640621242484912</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1850,16 +1812,15 @@
       <c r="F46">
         <v>49.001112224448896</v>
       </c>
-      <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
+      <c r="G46" s="2">
+        <v>49.001112224448896</v>
       </c>
       <c r="H46" s="1">
         <v>48</v>
       </c>
-      <c r="I46" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="I46" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0011122244488959</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1881,16 +1842,15 @@
       <c r="F47">
         <v>66.291084168336724</v>
       </c>
-      <c r="G47" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
+      <c r="G47" s="2">
+        <v>66.291084168336724</v>
       </c>
       <c r="H47" s="1">
         <v>48</v>
       </c>
-      <c r="I47" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+      <c r="I47" s="2">
+        <f t="shared" si="0"/>
+        <v>18.291084168336724</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1912,16 +1872,15 @@
       <c r="F48">
         <v>55.09189779559118</v>
       </c>
-      <c r="G48" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="G48" s="2">
+        <v>55.09189779559118</v>
       </c>
       <c r="H48" s="1">
         <v>48</v>
       </c>
-      <c r="I48" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="I48" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0918977955911799</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -1943,16 +1902,15 @@
       <c r="F49">
         <v>55.428715430861715</v>
       </c>
-      <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="G49" s="2">
+        <v>55.428715430861715</v>
       </c>
       <c r="H49" s="1">
         <v>48</v>
       </c>
-      <c r="I49" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="I49" s="2">
+        <f t="shared" si="0"/>
+        <v>7.4287154308617147</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -1974,16 +1932,15 @@
       <c r="F50">
         <v>55.933941883767531</v>
       </c>
-      <c r="G50" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="G50" s="2">
+        <v>55.933941883767531</v>
       </c>
       <c r="H50" s="1">
         <v>48</v>
       </c>
-      <c r="I50" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="I50" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9339418837675311</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2005,16 +1962,15 @@
       <c r="F51">
         <v>54.839284569138279</v>
       </c>
-      <c r="G51" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
+      <c r="G51" s="2">
+        <v>54.839284569138279</v>
       </c>
       <c r="H51" s="1">
         <v>48</v>
       </c>
-      <c r="I51" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="I51" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8392845691382789</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2036,16 +1992,15 @@
       <c r="F52">
         <v>53.127128256513018</v>
       </c>
-      <c r="G52" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="G52" s="2">
+        <v>53.127128256513018</v>
       </c>
       <c r="H52" s="1">
         <v>48</v>
       </c>
-      <c r="I52" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I52" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1271282565130178</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2067,16 +2022,15 @@
       <c r="F53">
         <v>53.070991983967929</v>
       </c>
-      <c r="G53" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="G53" s="2">
+        <v>53.070991983967929</v>
       </c>
       <c r="H53" s="1">
         <v>48</v>
       </c>
-      <c r="I53" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="I53" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0709919839679287</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2098,16 +2052,15 @@
       <c r="F54">
         <v>55.737464929859712</v>
       </c>
-      <c r="G54" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="G54" s="2">
+        <v>55.737464929859712</v>
       </c>
       <c r="H54" s="1">
         <v>48</v>
       </c>
-      <c r="I54" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="I54" s="2">
+        <f t="shared" si="0"/>
+        <v>7.737464929859712</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2129,16 +2082,15 @@
       <c r="F55">
         <v>56.775985971943889</v>
       </c>
-      <c r="G55" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
+      <c r="G55" s="2">
+        <v>56.775985971943889</v>
       </c>
       <c r="H55" s="1">
         <v>48</v>
       </c>
-      <c r="I55" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="I55" s="2">
+        <f t="shared" si="0"/>
+        <v>8.7759859719438893</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2160,16 +2112,15 @@
       <c r="F56">
         <v>57.281212424849699</v>
       </c>
-      <c r="G56" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
+      <c r="G56" s="2">
+        <v>57.281212424849699</v>
       </c>
       <c r="H56" s="1">
         <v>48</v>
       </c>
-      <c r="I56" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+      <c r="I56" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2812124248496986</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2191,16 +2142,15 @@
       <c r="F57">
         <v>54.755080160320645</v>
       </c>
-      <c r="G57" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
+      <c r="G57" s="2">
+        <v>54.755080160320645</v>
       </c>
       <c r="H57" s="1">
         <v>48</v>
       </c>
-      <c r="I57" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="I57" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7550801603206452</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2222,16 +2172,15 @@
       <c r="F58">
         <v>49.113384769539081</v>
       </c>
-      <c r="G58" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
+      <c r="G58" s="2">
+        <v>49.113384769539081</v>
       </c>
       <c r="H58" s="1">
         <v>48</v>
       </c>
-      <c r="I58" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="I58" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1133847695390813</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2253,16 +2202,15 @@
       <c r="F59">
         <v>23.750929859719438</v>
       </c>
-      <c r="G59" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="G59" s="2">
+        <v>23.750929859719438</v>
       </c>
       <c r="H59" s="1">
         <v>19</v>
       </c>
-      <c r="I59" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I59" s="2">
+        <f t="shared" si="0"/>
+        <v>4.750929859719438</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2284,16 +2232,15 @@
       <c r="F60">
         <v>23.060460921843685</v>
       </c>
-      <c r="G60" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="G60" s="2">
+        <v>23.060460921843685</v>
       </c>
       <c r="H60" s="1">
         <v>19</v>
       </c>
-      <c r="I60" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I60" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0604609218436849</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2315,16 +2262,15 @@
       <c r="F61">
         <v>22.974152304609216</v>
       </c>
-      <c r="G61" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="G61" s="2">
+        <v>22.974152304609216</v>
       </c>
       <c r="H61" s="1">
         <v>19</v>
       </c>
-      <c r="I61" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I61" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9741523046092162</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2346,16 +2292,15 @@
       <c r="F62">
         <v>22.686456913827662</v>
       </c>
-      <c r="G62" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="G62" s="2">
+        <v>22.686456913827662</v>
       </c>
       <c r="H62" s="1">
         <v>19</v>
       </c>
-      <c r="I62" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="I62" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6864569138276622</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2377,16 +2322,15 @@
       <c r="F63">
         <v>23.492004008016025</v>
       </c>
-      <c r="G63" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="G63" s="2">
+        <v>23.492004008016025</v>
       </c>
       <c r="H63" s="1">
         <v>19</v>
       </c>
-      <c r="I63" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="I63" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4920040080160248</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2408,16 +2352,15 @@
       <c r="F64">
         <v>22.348414829659319</v>
       </c>
-      <c r="G64" s="1">
-        <f t="shared" ref="G64:G115" si="6">FLOOR(F64,1)</f>
-        <v>22</v>
+      <c r="G64" s="2">
+        <v>22.348414829659319</v>
       </c>
       <c r="H64" s="1">
         <v>19</v>
       </c>
-      <c r="I64" s="1">
-        <f t="shared" ref="I64:I115" si="7">G64-H64</f>
-        <v>3</v>
+      <c r="I64" s="2">
+        <f t="shared" si="0"/>
+        <v>3.348414829659319</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2439,16 +2382,15 @@
       <c r="F65">
         <v>22.91661322645291</v>
       </c>
-      <c r="G65" s="1">
-        <f t="shared" si="6"/>
-        <v>22</v>
+      <c r="G65" s="2">
+        <v>22.91661322645291</v>
       </c>
       <c r="H65" s="1">
         <v>19</v>
       </c>
-      <c r="I65" s="1">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="I65" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9166132264529097</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2470,16 +2412,15 @@
       <c r="F66">
         <v>23.312194388777552</v>
       </c>
-      <c r="G66" s="1">
-        <f t="shared" si="6"/>
-        <v>23</v>
+      <c r="G66" s="2">
+        <v>23.312194388777552</v>
       </c>
       <c r="H66" s="1">
         <v>19</v>
       </c>
-      <c r="I66" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="I66" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3121943887775522</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2501,16 +2442,15 @@
       <c r="F67">
         <v>26.376150300601203</v>
       </c>
-      <c r="G67" s="1">
-        <f t="shared" si="6"/>
-        <v>26</v>
+      <c r="G67" s="2">
+        <v>26.376150300601203</v>
       </c>
       <c r="H67" s="1">
         <v>19</v>
       </c>
-      <c r="I67" s="1">
-        <f t="shared" si="7"/>
-        <v>7</v>
+      <c r="I67" s="2">
+        <f t="shared" ref="I67:I115" si="1">G67-H67</f>
+        <v>7.3761503006012035</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2532,16 +2472,15 @@
       <c r="F68">
         <v>24.635593186372745</v>
       </c>
-      <c r="G68" s="1">
-        <f t="shared" si="6"/>
-        <v>24</v>
+      <c r="G68" s="2">
+        <v>24.635593186372745</v>
       </c>
       <c r="H68" s="1">
         <v>19</v>
       </c>
-      <c r="I68" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
+      <c r="I68" s="2">
+        <f t="shared" si="1"/>
+        <v>5.6355931863727449</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2563,16 +2502,15 @@
       <c r="F69">
         <v>24.42701402805611</v>
       </c>
-      <c r="G69" s="1">
-        <f t="shared" si="6"/>
-        <v>24</v>
+      <c r="G69" s="2">
+        <v>24.42701402805611</v>
       </c>
       <c r="H69" s="1">
         <v>19</v>
       </c>
-      <c r="I69" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
+      <c r="I69" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4270140280561101</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2594,16 +2532,15 @@
       <c r="F70">
         <v>23.750929859719434</v>
       </c>
-      <c r="G70" s="1">
-        <f t="shared" si="6"/>
-        <v>23</v>
+      <c r="G70" s="2">
+        <v>23.750929859719434</v>
       </c>
       <c r="H70" s="1">
         <v>19</v>
       </c>
-      <c r="I70" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="I70" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7509298597194345</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2625,16 +2562,15 @@
       <c r="F71">
         <v>23.470426853707416</v>
       </c>
-      <c r="G71" s="1">
-        <f t="shared" si="6"/>
-        <v>23</v>
+      <c r="G71" s="2">
+        <v>23.470426853707416</v>
       </c>
       <c r="H71" s="1">
         <v>19</v>
       </c>
-      <c r="I71" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="I71" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4704268537074157</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2656,16 +2592,15 @@
       <c r="F72">
         <v>24.779440881763527</v>
       </c>
-      <c r="G72" s="1">
-        <f t="shared" si="6"/>
-        <v>24</v>
+      <c r="G72" s="2">
+        <v>24.779440881763527</v>
       </c>
       <c r="H72" s="1">
         <v>19</v>
       </c>
-      <c r="I72" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
+      <c r="I72" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7794408817635272</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2687,16 +2622,15 @@
       <c r="F73">
         <v>22.859074148296589</v>
       </c>
-      <c r="G73" s="1">
-        <f t="shared" ref="G73:G74" si="8">FLOOR(F73,1)</f>
-        <v>22</v>
+      <c r="G73" s="2">
+        <v>22.859074148296589</v>
       </c>
       <c r="H73" s="1">
         <v>19</v>
       </c>
-      <c r="I73" s="1">
-        <f t="shared" ref="I73:I74" si="9">G73-H73</f>
-        <v>3</v>
+      <c r="I73" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8590741482965889</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2716,18 +2650,17 @@
         <v>5</v>
       </c>
       <c r="F74">
-        <v>22.859074148296589</v>
-      </c>
-      <c r="G74" s="1">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <v>26.707000000000001</v>
+      </c>
+      <c r="G74" s="2">
+        <v>26.707000000000001</v>
       </c>
       <c r="H74" s="1">
         <v>19</v>
       </c>
-      <c r="I74" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
+      <c r="I74" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7070000000000007</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -2747,18 +2680,17 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <v>22.859074148296589</v>
-      </c>
-      <c r="G75" s="1">
-        <f t="shared" ref="G75" si="10">FLOOR(F75,1)</f>
-        <v>22</v>
+        <v>26.707000000000001</v>
+      </c>
+      <c r="G75" s="2">
+        <v>26.707000000000001</v>
       </c>
       <c r="H75" s="1">
         <v>19</v>
       </c>
-      <c r="I75" s="1">
-        <f t="shared" ref="I75" si="11">G75-H75</f>
-        <v>3</v>
+      <c r="I75" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7070000000000007</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -2778,18 +2710,17 @@
         <v>5</v>
       </c>
       <c r="F76">
-        <v>22.859074148296589</v>
-      </c>
-      <c r="G76" s="1">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <v>26.707000000000001</v>
+      </c>
+      <c r="G76" s="2">
+        <v>26.707000000000001</v>
       </c>
       <c r="H76" s="1">
         <v>19</v>
       </c>
-      <c r="I76" s="1">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="I76" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7070000000000007</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -2811,16 +2742,15 @@
       <c r="F77">
         <v>23.664621242484973</v>
       </c>
-      <c r="G77" s="1">
-        <f t="shared" si="6"/>
-        <v>23</v>
+      <c r="G77" s="2">
+        <v>23.664621242484973</v>
       </c>
       <c r="H77" s="1">
         <v>19</v>
       </c>
-      <c r="I77" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="I77" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6646212424849729</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -2842,16 +2772,15 @@
       <c r="F78">
         <v>50.85019438877756</v>
       </c>
-      <c r="G78" s="1">
-        <f t="shared" si="6"/>
-        <v>50</v>
+      <c r="G78" s="2">
+        <v>50.85019438877756</v>
       </c>
       <c r="H78" s="1">
         <v>45</v>
       </c>
-      <c r="I78" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
+      <c r="I78" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8501943887775596</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -2873,16 +2802,15 @@
       <c r="F79">
         <v>51.2440380761523</v>
       </c>
-      <c r="G79" s="1">
-        <f t="shared" si="6"/>
-        <v>51</v>
+      <c r="G79" s="2">
+        <v>51.2440380761523</v>
       </c>
       <c r="H79" s="1">
         <v>45</v>
       </c>
-      <c r="I79" s="1">
-        <f t="shared" si="7"/>
-        <v>6</v>
+      <c r="I79" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2440380761523002</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -2904,16 +2832,15 @@
       <c r="F80">
         <v>53.016334669338676</v>
       </c>
-      <c r="G80" s="1">
-        <f t="shared" si="6"/>
-        <v>53</v>
+      <c r="G80" s="2">
+        <v>53.016334669338676</v>
       </c>
       <c r="H80" s="1">
         <v>45</v>
       </c>
-      <c r="I80" s="1">
-        <f t="shared" si="7"/>
-        <v>8</v>
+      <c r="I80" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0163346693386757</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -2935,16 +2862,15 @@
       <c r="F81">
         <v>46.493298597194382</v>
       </c>
-      <c r="G81" s="1">
-        <f t="shared" si="6"/>
-        <v>46</v>
+      <c r="G81" s="2">
+        <v>46.493298597194382</v>
       </c>
       <c r="H81" s="1">
         <v>45</v>
       </c>
-      <c r="I81" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+      <c r="I81" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4932985971943822</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -2966,16 +2892,15 @@
       <c r="F82">
         <v>52.819412825651298</v>
       </c>
-      <c r="G82" s="1">
-        <f t="shared" si="6"/>
-        <v>52</v>
+      <c r="G82" s="2">
+        <v>52.819412825651298</v>
       </c>
       <c r="H82" s="1">
         <v>45</v>
       </c>
-      <c r="I82" s="1">
-        <f t="shared" si="7"/>
-        <v>7</v>
+      <c r="I82" s="2">
+        <f t="shared" si="1"/>
+        <v>7.8194128256512982</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -2997,16 +2922,15 @@
       <c r="F83">
         <v>49.570202404809613</v>
       </c>
-      <c r="G83" s="1">
-        <f t="shared" si="6"/>
-        <v>49</v>
+      <c r="G83" s="2">
+        <v>49.570202404809613</v>
       </c>
       <c r="H83" s="1">
         <v>45</v>
       </c>
-      <c r="I83" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="I83" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5702024048096135</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3028,16 +2952,15 @@
       <c r="F84">
         <v>47.600983967935868</v>
       </c>
-      <c r="G84" s="1">
-        <f t="shared" si="6"/>
-        <v>47</v>
+      <c r="G84" s="2">
+        <v>47.600983967935868</v>
       </c>
       <c r="H84" s="1">
         <v>45</v>
       </c>
-      <c r="I84" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+      <c r="I84" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6009839679358677</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3059,16 +2982,15 @@
       <c r="F85">
         <v>52.819412825651298</v>
       </c>
-      <c r="G85" s="1">
-        <f t="shared" si="6"/>
-        <v>52</v>
+      <c r="G85" s="2">
+        <v>52.819412825651298</v>
       </c>
       <c r="H85" s="1">
         <v>45</v>
       </c>
-      <c r="I85" s="1">
-        <f t="shared" si="7"/>
-        <v>7</v>
+      <c r="I85" s="2">
+        <f t="shared" si="1"/>
+        <v>7.8194128256512982</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3090,16 +3012,15 @@
       <c r="F86">
         <v>60.720901803607205</v>
       </c>
-      <c r="G86" s="1">
-        <f t="shared" si="6"/>
-        <v>60</v>
+      <c r="G86" s="2">
+        <v>60.720901803607205</v>
       </c>
       <c r="H86" s="1">
         <v>45</v>
       </c>
-      <c r="I86" s="1">
-        <f t="shared" si="7"/>
-        <v>15</v>
+      <c r="I86" s="2">
+        <f t="shared" si="1"/>
+        <v>15.720901803607205</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3121,16 +3042,15 @@
       <c r="F87">
         <v>58.410916270040083</v>
       </c>
-      <c r="G87" s="1">
-        <f t="shared" si="6"/>
-        <v>58</v>
+      <c r="G87" s="2">
+        <v>58.410916270040083</v>
       </c>
       <c r="H87" s="1">
         <v>45</v>
       </c>
-      <c r="I87" s="1">
-        <f t="shared" si="7"/>
-        <v>13</v>
+      <c r="I87" s="2">
+        <f t="shared" si="1"/>
+        <v>13.410916270040083</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3152,16 +3072,15 @@
       <c r="F88">
         <v>58.677837675350709</v>
       </c>
-      <c r="G88" s="1">
-        <f t="shared" si="6"/>
-        <v>58</v>
+      <c r="G88" s="2">
+        <v>58.677837675350709</v>
       </c>
       <c r="H88" s="1">
         <v>45</v>
       </c>
-      <c r="I88" s="1">
-        <f t="shared" si="7"/>
-        <v>13</v>
+      <c r="I88" s="2">
+        <f t="shared" si="1"/>
+        <v>13.677837675350709</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3183,16 +3102,15 @@
       <c r="F89">
         <v>49.693278557114219</v>
       </c>
-      <c r="G89" s="1">
-        <f t="shared" si="6"/>
-        <v>49</v>
+      <c r="G89" s="2">
+        <v>49.693278557114219</v>
       </c>
       <c r="H89" s="1">
         <v>45</v>
       </c>
-      <c r="I89" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="I89" s="2">
+        <f t="shared" si="1"/>
+        <v>4.693278557114219</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3214,16 +3132,15 @@
       <c r="F90">
         <v>54.985553106212421</v>
       </c>
-      <c r="G90" s="1">
-        <f t="shared" si="6"/>
-        <v>54</v>
+      <c r="G90" s="2">
+        <v>54.985553106212421</v>
       </c>
       <c r="H90" s="1">
         <v>45</v>
       </c>
-      <c r="I90" s="1">
-        <f t="shared" si="7"/>
-        <v>9</v>
+      <c r="I90" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9855531062124214</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3245,16 +3162,15 @@
       <c r="F91">
         <v>57.077847695390766</v>
       </c>
-      <c r="G91" s="1">
-        <f t="shared" si="6"/>
-        <v>57</v>
+      <c r="G91" s="2">
+        <v>57.077847695390766</v>
       </c>
       <c r="H91" s="1">
         <v>45</v>
       </c>
-      <c r="I91" s="1">
-        <f t="shared" si="7"/>
-        <v>12</v>
+      <c r="I91" s="2">
+        <f t="shared" si="1"/>
+        <v>12.077847695390766</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3276,16 +3192,15 @@
       <c r="F92">
         <v>48.21636472945891</v>
       </c>
-      <c r="G92" s="1">
-        <f t="shared" si="6"/>
-        <v>48</v>
+      <c r="G92" s="2">
+        <v>48.21636472945891</v>
       </c>
       <c r="H92" s="1">
         <v>45</v>
       </c>
-      <c r="I92" s="1">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="I92" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2163647294589097</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3307,16 +3222,15 @@
       <c r="F93">
         <v>62.591659318637269</v>
       </c>
-      <c r="G93" s="1">
-        <f t="shared" si="6"/>
-        <v>62</v>
+      <c r="G93" s="2">
+        <v>62.591659318637269</v>
       </c>
       <c r="H93" s="1">
         <v>45</v>
       </c>
-      <c r="I93" s="1">
-        <f t="shared" si="7"/>
-        <v>17</v>
+      <c r="I93" s="2">
+        <f t="shared" si="1"/>
+        <v>17.591659318637269</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3338,16 +3252,15 @@
       <c r="F94">
         <v>59.440909819639288</v>
       </c>
-      <c r="G94" s="1">
-        <f t="shared" si="6"/>
-        <v>59</v>
+      <c r="G94" s="2">
+        <v>59.440909819639288</v>
       </c>
       <c r="H94" s="1">
         <v>45</v>
       </c>
-      <c r="I94" s="1">
-        <f t="shared" si="7"/>
-        <v>14</v>
+      <c r="I94" s="2">
+        <f t="shared" si="1"/>
+        <v>14.440909819639288</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3369,16 +3282,15 @@
       <c r="F95">
         <v>61.188591182364725</v>
       </c>
-      <c r="G95" s="1">
-        <f t="shared" si="6"/>
-        <v>61</v>
+      <c r="G95" s="2">
+        <v>61.188591182364725</v>
       </c>
       <c r="H95" s="1">
         <v>45</v>
       </c>
-      <c r="I95" s="1">
-        <f t="shared" si="7"/>
-        <v>16</v>
+      <c r="I95" s="2">
+        <f t="shared" si="1"/>
+        <v>16.188591182364725</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3400,16 +3312,15 @@
       <c r="F96">
         <v>54.985553106212436</v>
       </c>
-      <c r="G96" s="1">
-        <f t="shared" si="6"/>
-        <v>54</v>
+      <c r="G96" s="2">
+        <v>54.985553106212436</v>
       </c>
       <c r="H96" s="1">
         <v>45</v>
       </c>
-      <c r="I96" s="1">
-        <f t="shared" si="7"/>
-        <v>9</v>
+      <c r="I96" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9855531062124356</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3431,16 +3342,15 @@
       <c r="F97">
         <v>56.072450901803606</v>
       </c>
-      <c r="G97" s="1">
-        <f t="shared" si="6"/>
-        <v>56</v>
+      <c r="G97" s="2">
+        <v>56.072450901803606</v>
       </c>
       <c r="H97" s="1">
         <v>52</v>
       </c>
-      <c r="I97" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="I97" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0724509018036059</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3462,16 +3372,15 @@
       <c r="F98">
         <v>53.413661322645297</v>
       </c>
-      <c r="G98" s="1">
-        <f t="shared" si="6"/>
-        <v>53</v>
+      <c r="G98" s="2">
+        <v>53.413661322645297</v>
       </c>
       <c r="H98" s="1">
         <v>52</v>
       </c>
-      <c r="I98" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+      <c r="I98" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4136613226452965</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3493,16 +3402,15 @@
       <c r="F99">
         <v>53.808531062124253</v>
       </c>
-      <c r="G99" s="1">
-        <f t="shared" si="6"/>
-        <v>53</v>
+      <c r="G99" s="2">
+        <v>53.808531062124253</v>
       </c>
       <c r="H99" s="1">
         <v>52</v>
       </c>
-      <c r="I99" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+      <c r="I99" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8085310621242527</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -3524,16 +3432,15 @@
       <c r="F100">
         <v>54.045452905811629</v>
       </c>
-      <c r="G100" s="1">
-        <f t="shared" si="6"/>
-        <v>54</v>
+      <c r="G100" s="2">
+        <v>54.045452905811629</v>
       </c>
       <c r="H100" s="1">
         <v>52</v>
       </c>
-      <c r="I100" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+      <c r="I100" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0454529058116293</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -3555,16 +3462,15 @@
       <c r="F101">
         <v>54.019128256513028</v>
       </c>
-      <c r="G101" s="1">
-        <f t="shared" si="6"/>
-        <v>54</v>
+      <c r="G101" s="2">
+        <v>54.019128256513028</v>
       </c>
       <c r="H101" s="1">
         <v>52</v>
       </c>
-      <c r="I101" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+      <c r="I101" s="2">
+        <f t="shared" si="1"/>
+        <v>2.019128256513028</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -3586,16 +3492,15 @@
       <c r="F102">
         <v>52.887168336673348</v>
       </c>
-      <c r="G102" s="1">
-        <f t="shared" si="6"/>
-        <v>52</v>
+      <c r="G102" s="2">
+        <v>52.887168336673348</v>
       </c>
       <c r="H102" s="1">
         <v>52</v>
       </c>
-      <c r="I102" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="I102" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88716833667334782</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -3617,16 +3522,15 @@
       <c r="F103">
         <v>53.887505010020035</v>
       </c>
-      <c r="G103" s="1">
-        <f t="shared" si="6"/>
-        <v>53</v>
+      <c r="G103" s="2">
+        <v>53.887505010020035</v>
       </c>
       <c r="H103" s="1">
         <v>52</v>
       </c>
-      <c r="I103" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+      <c r="I103" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8875050100200355</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -3648,16 +3552,15 @@
       <c r="F104">
         <v>53.466310621242485</v>
       </c>
-      <c r="G104" s="1">
-        <f t="shared" si="6"/>
-        <v>53</v>
+      <c r="G104" s="2">
+        <v>53.466310621242485</v>
       </c>
       <c r="H104" s="1">
         <v>52</v>
       </c>
-      <c r="I104" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+      <c r="I104" s="2">
+        <f t="shared" si="1"/>
+        <v>1.466310621242485</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -3679,16 +3582,15 @@
       <c r="F105">
         <v>53.466310621242485</v>
       </c>
-      <c r="G105" s="1">
-        <f t="shared" si="6"/>
-        <v>53</v>
+      <c r="G105" s="2">
+        <v>53.466310621242485</v>
       </c>
       <c r="H105" s="1">
         <v>52</v>
       </c>
-      <c r="I105" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+      <c r="I105" s="2">
+        <f t="shared" si="1"/>
+        <v>1.466310621242485</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -3710,16 +3612,15 @@
       <c r="F106">
         <v>60.942511022044094</v>
       </c>
-      <c r="G106" s="1">
-        <f t="shared" si="6"/>
-        <v>60</v>
+      <c r="G106" s="2">
+        <v>60.942511022044094</v>
       </c>
       <c r="H106" s="1">
         <v>52</v>
       </c>
-      <c r="I106" s="1">
-        <f t="shared" si="7"/>
-        <v>8</v>
+      <c r="I106" s="2">
+        <f t="shared" si="1"/>
+        <v>8.9425110220440942</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -3741,16 +3642,15 @@
       <c r="F107">
         <v>57.309709418837684</v>
       </c>
-      <c r="G107" s="1">
-        <f t="shared" si="6"/>
-        <v>57</v>
+      <c r="G107" s="2">
+        <v>57.309709418837684</v>
       </c>
       <c r="H107" s="1">
         <v>52</v>
       </c>
-      <c r="I107" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
+      <c r="I107" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3097094188376843</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -3772,16 +3672,15 @@
       <c r="F108">
         <v>58.125773547094191</v>
       </c>
-      <c r="G108" s="1">
-        <f t="shared" si="6"/>
-        <v>58</v>
+      <c r="G108" s="2">
+        <v>58.125773547094191</v>
       </c>
       <c r="H108" s="1">
         <v>52</v>
       </c>
-      <c r="I108" s="1">
-        <f t="shared" si="7"/>
-        <v>6</v>
+      <c r="I108" s="2">
+        <f t="shared" si="1"/>
+        <v>6.125773547094191</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -3803,16 +3702,15 @@
       <c r="F109">
         <v>54.887841683366737</v>
       </c>
-      <c r="G109" s="1">
-        <f t="shared" si="6"/>
-        <v>54</v>
+      <c r="G109" s="2">
+        <v>54.887841683366737</v>
       </c>
       <c r="H109" s="1">
         <v>52</v>
       </c>
-      <c r="I109" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+      <c r="I109" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8878416833667373</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -3834,16 +3732,15 @@
       <c r="F110">
         <v>55.01946492985973</v>
       </c>
-      <c r="G110" s="1">
-        <f t="shared" si="6"/>
-        <v>55</v>
+      <c r="G110" s="2">
+        <v>55.01946492985973</v>
       </c>
       <c r="H110" s="1">
         <v>52</v>
       </c>
-      <c r="I110" s="1">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="I110" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0194649298597298</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -3865,16 +3762,15 @@
       <c r="F111">
         <v>54.54562124248497</v>
       </c>
-      <c r="G111" s="1">
-        <f t="shared" si="6"/>
-        <v>54</v>
+      <c r="G111" s="2">
+        <v>54.54562124248497</v>
       </c>
       <c r="H111" s="1">
         <v>52</v>
       </c>
-      <c r="I111" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+      <c r="I111" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5456212424849696</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -3896,16 +3792,15 @@
       <c r="F112">
         <v>54.387673346693383</v>
       </c>
-      <c r="G112" s="1">
-        <f t="shared" si="6"/>
-        <v>54</v>
+      <c r="G112" s="2">
+        <v>54.387673346693383</v>
       </c>
       <c r="H112" s="1">
         <v>52</v>
       </c>
-      <c r="I112" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
+      <c r="I112" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3876733466933828</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -3927,16 +3822,15 @@
       <c r="F113">
         <v>60.889861723446899</v>
       </c>
-      <c r="G113" s="1">
-        <f t="shared" si="6"/>
-        <v>60</v>
+      <c r="G113" s="2">
+        <v>60.889861723446899</v>
       </c>
       <c r="H113" s="1">
         <v>52</v>
       </c>
-      <c r="I113" s="1">
-        <f t="shared" si="7"/>
-        <v>8</v>
+      <c r="I113" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8898617234468986</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -3958,16 +3852,15 @@
       <c r="F114">
         <v>58.546967935871749</v>
       </c>
-      <c r="G114" s="1">
-        <f t="shared" si="6"/>
-        <v>58</v>
+      <c r="G114" s="2">
+        <v>58.546967935871749</v>
       </c>
       <c r="H114" s="1">
         <v>52</v>
       </c>
-      <c r="I114" s="1">
-        <f t="shared" si="7"/>
-        <v>6</v>
+      <c r="I114" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5469679358717485</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -3989,16 +3882,15 @@
       <c r="F115">
         <v>56.519969939879765</v>
       </c>
-      <c r="G115" s="1">
-        <f t="shared" si="6"/>
-        <v>56</v>
+      <c r="G115" s="2">
+        <v>56.519969939879765</v>
       </c>
       <c r="H115" s="1">
         <v>52</v>
       </c>
-      <c r="I115" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="I115" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5199699398797648</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">

--- a/matlab/statistics/rawdataAnovaLoudnessDiffThresholdWithout9Sub.xlsx
+++ b/matlab/statistics/rawdataAnovaLoudnessDiffThresholdWithout9Sub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\thesis\matlab\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9C8071-FA6A-47F5-9F17-C0D41C599CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25B177A-8302-4CFB-A430-6200B6A03D9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{7AF3A03D-CE9E-409E-9E62-EADF04CEEE14}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{7AF3A03D-CE9E-409E-9E62-EADF04CEEE14}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -113,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -433,7 +433,7 @@
   <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,14 +493,14 @@
         <v>17.127966933867736</v>
       </c>
       <c r="G2" s="2">
-        <v>17.127966933867736</v>
+        <v>16.195573146292585</v>
       </c>
       <c r="H2" s="1">
         <v>13</v>
       </c>
       <c r="I2" s="2">
         <f>G2-H2</f>
-        <v>4.1279669338677358</v>
+        <v>3.1955731462925847</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -523,14 +523,14 @@
         <v>16.848982965931867</v>
       </c>
       <c r="G3" s="2">
-        <v>16.848982965931867</v>
+        <v>15.637605210420842</v>
       </c>
       <c r="H3" s="1">
         <v>13</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I66" si="0">G3-H3</f>
-        <v>3.8489829659318673</v>
+        <v>2.6376052104208423</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -553,14 +553,14 @@
         <v>17.986943887775549</v>
       </c>
       <c r="G4" s="2">
-        <v>17.986943887775549</v>
+        <v>16.430507014028059</v>
       </c>
       <c r="H4" s="1">
         <v>13</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9869438877755492</v>
+        <v>3.4305070140280591</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -583,14 +583,14 @@
         <v>17.399609218436876</v>
       </c>
       <c r="G5" s="2">
-        <v>17.399609218436876</v>
+        <v>16.026714428857712</v>
       </c>
       <c r="H5" s="1">
         <v>13</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3996092184368756</v>
+        <v>3.0267144288577121</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -613,14 +613,14 @@
         <v>16.210256513026053</v>
       </c>
       <c r="G6" s="2">
-        <v>16.210256513026053</v>
+        <v>15.211787575150302</v>
       </c>
       <c r="H6" s="1">
         <v>13</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>3.210256513026053</v>
+        <v>2.2117875751503018</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -643,14 +643,14 @@
         <v>17.03986673346693</v>
       </c>
       <c r="G7" s="2">
-        <v>17.03986673346693</v>
+        <v>16.775566132264526</v>
       </c>
       <c r="H7" s="1">
         <v>13</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>4.0398667334669298</v>
+        <v>3.775566132264526</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -673,14 +673,14 @@
         <v>20.196790581162325</v>
       </c>
       <c r="G8" s="2">
-        <v>20.196790581162325</v>
+        <v>18.449469939879766</v>
       </c>
       <c r="H8" s="1">
         <v>13</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>7.1967905811623254</v>
+        <v>5.4494699398797657</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -703,14 +703,14 @@
         <v>17.906185370741483</v>
       </c>
       <c r="G9" s="2">
-        <v>17.906185370741483</v>
+        <v>16.540632264529059</v>
       </c>
       <c r="H9" s="1">
         <v>13</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>4.9061853707414826</v>
+        <v>3.5406322645290587</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -763,14 +763,14 @@
         <v>17.054550100200405</v>
       </c>
       <c r="G11" s="2">
-        <v>17.054550100200405</v>
+        <v>15.982664328657314</v>
       </c>
       <c r="H11" s="1">
         <v>13</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>4.0545501002004052</v>
+        <v>2.9826643286573145</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -793,14 +793,14 @@
         <v>20.673999999999999</v>
       </c>
       <c r="G12" s="2">
-        <v>20.673999999999999</v>
+        <v>20.196790581162325</v>
       </c>
       <c r="H12" s="1">
         <v>13</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>7.6739999999999995</v>
+        <v>7.1967905811623254</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -823,14 +823,14 @@
         <v>17.326192384769541</v>
       </c>
       <c r="G13" s="2">
-        <v>17.326192384769541</v>
+        <v>15.931272545090176</v>
       </c>
       <c r="H13" s="1">
         <v>13</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>4.3261923847695414</v>
+        <v>2.9312725450901755</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -853,14 +853,14 @@
         <v>19.499330661322649</v>
       </c>
       <c r="G14" s="2">
-        <v>19.499330661322649</v>
+        <v>17.49505110220441</v>
       </c>
       <c r="H14" s="1">
         <v>13</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="0"/>
-        <v>6.4993306613226487</v>
+        <v>4.4950511022044104</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -883,14 +883,14 @@
         <v>18.97807114228457</v>
       </c>
       <c r="G15" s="2">
-        <v>18.97807114228457</v>
+        <v>17.172017034068141</v>
       </c>
       <c r="H15" s="1">
         <v>13</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>5.9780711422845698</v>
+        <v>4.1720170340681406</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -913,14 +913,14 @@
         <v>18.677062124248501</v>
       </c>
       <c r="G16" s="2">
-        <v>18.677062124248501</v>
+        <v>17.127966933867736</v>
       </c>
       <c r="H16" s="1">
         <v>13</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="0"/>
-        <v>5.6770621242485007</v>
+        <v>4.1279669338677358</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -943,14 +943,14 @@
         <v>20.380332665330663</v>
       </c>
       <c r="G17" s="2">
-        <v>20.380332665330663</v>
+        <v>18.677062124248497</v>
       </c>
       <c r="H17" s="1">
         <v>13</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="0"/>
-        <v>7.3803326653306627</v>
+        <v>5.6770621242484971</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -973,14 +973,14 @@
         <v>17.428975951903809</v>
       </c>
       <c r="G18" s="2">
-        <v>17.428975951903809</v>
+        <v>15.857855711422845</v>
       </c>
       <c r="H18" s="1">
         <v>13</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="0"/>
-        <v>4.4289759519038086</v>
+        <v>2.8578557114228449</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1003,14 +1003,14 @@
         <v>20.101348697394787</v>
       </c>
       <c r="G19" s="2">
-        <v>20.101348697394787</v>
+        <v>18.28061122244489</v>
       </c>
       <c r="H19" s="1">
         <v>13</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="0"/>
-        <v>7.101348697394787</v>
+        <v>5.2806112224448896</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1033,14 +1033,14 @@
         <v>16.8563246492986</v>
       </c>
       <c r="G20" s="2">
-        <v>16.8563246492986</v>
+        <v>16.386456913827654</v>
       </c>
       <c r="H20" s="1">
         <v>13</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>3.8563246492985996</v>
+        <v>3.3864569138276543</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1063,14 +1063,14 @@
         <v>45.949304609218423</v>
       </c>
       <c r="G21" s="2">
-        <v>45.949304609218423</v>
+        <v>44.011623246492988</v>
       </c>
       <c r="H21" s="1">
         <v>40</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
-        <v>5.949304609218423</v>
+        <v>4.011623246492988</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1093,14 +1093,14 @@
         <v>46.374649298597198</v>
       </c>
       <c r="G22" s="2">
-        <v>46.374649298597198</v>
+        <v>43.822581162324646</v>
       </c>
       <c r="H22" s="1">
         <v>40</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="0"/>
-        <v>6.3746492985971983</v>
+        <v>3.8225811623246457</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1123,14 +1123,14 @@
         <v>46.043825651302598</v>
       </c>
       <c r="G23" s="2">
-        <v>46.043825651302598</v>
+        <v>44.20066533066133</v>
       </c>
       <c r="H23" s="1">
         <v>40</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="0"/>
-        <v>6.0438256513025976</v>
+        <v>4.2006653306613302</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1153,14 +1153,14 @@
         <v>46.941775551102189</v>
       </c>
       <c r="G24" s="2">
-        <v>46.941775551102189</v>
+        <v>44.602379759519032</v>
       </c>
       <c r="H24" s="1">
         <v>40</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="0"/>
-        <v>6.9417755511021895</v>
+        <v>4.6023797595190317</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1183,14 +1183,14 @@
         <v>44.153404809619239</v>
       </c>
       <c r="G25" s="2">
-        <v>44.153404809619239</v>
+        <v>43.184564128256518</v>
       </c>
       <c r="H25" s="1">
         <v>40</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="0"/>
-        <v>4.1534048096192393</v>
+        <v>3.1845641282565182</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1213,14 +1213,14 @@
         <v>46.303758517034069</v>
       </c>
       <c r="G26" s="2">
-        <v>46.303758517034069</v>
+        <v>43.98799298597195</v>
       </c>
       <c r="H26" s="1">
         <v>40</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="0"/>
-        <v>6.3037585170340691</v>
+        <v>3.9879929859719496</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1243,14 +1243,14 @@
         <v>40.585235470941882</v>
       </c>
       <c r="G27" s="2">
-        <v>40.585235470941882</v>
+        <v>40.443453907815623</v>
       </c>
       <c r="H27" s="1">
         <v>40</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>0.58523547094188189</v>
+        <v>0.44345390781562344</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1273,14 +1273,14 @@
         <v>50.037339679358723</v>
       </c>
       <c r="G28" s="2">
-        <v>50.037339679358723</v>
+        <v>46.587321643286586</v>
       </c>
       <c r="H28" s="1">
         <v>40</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
-        <v>10.037339679358723</v>
+        <v>6.587321643286586</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1303,14 +1303,14 @@
         <v>60.245612224448898</v>
       </c>
       <c r="G29" s="2">
-        <v>60.245612224448898</v>
+        <v>52.683928857715422</v>
       </c>
       <c r="H29" s="1">
         <v>40</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="0"/>
-        <v>20.245612224448898</v>
+        <v>12.683928857715422</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1333,14 +1333,14 @@
         <v>46.870884769539074</v>
       </c>
       <c r="G30" s="2">
-        <v>46.870884769539074</v>
+        <v>44.318816633266529</v>
       </c>
       <c r="H30" s="1">
         <v>40</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>6.8708847695390745</v>
+        <v>4.318816633266529</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1363,14 +1363,14 @@
         <v>45.594850701402819</v>
       </c>
       <c r="G31" s="2">
-        <v>45.594850701402819</v>
+        <v>43.468127254509021</v>
       </c>
       <c r="H31" s="1">
         <v>40</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="0"/>
-        <v>5.5948507014028195</v>
+        <v>3.4681272545090209</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1393,14 +1393,14 @@
         <v>45.122245490981946</v>
       </c>
       <c r="G32" s="2">
-        <v>45.122245490981946</v>
+        <v>42.995522044088176</v>
       </c>
       <c r="H32" s="1">
         <v>40</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="0"/>
-        <v>5.1222454909819461</v>
+        <v>2.995522044088176</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1423,14 +1423,14 @@
         <v>42.286614228456912</v>
       </c>
       <c r="G33" s="2">
-        <v>42.286614228456912</v>
+        <v>41.648597194388778</v>
       </c>
       <c r="H33" s="1">
         <v>40</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>2.2866142284569122</v>
+        <v>1.6485971943887776</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1453,14 +1453,14 @@
         <v>47.01266633266534</v>
       </c>
       <c r="G34" s="2">
-        <v>47.01266633266534</v>
+        <v>44.082514028056103</v>
       </c>
       <c r="H34" s="1">
         <v>40</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="0"/>
-        <v>7.01266633266534</v>
+        <v>4.082514028056103</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1483,14 +1483,14 @@
         <v>45.453069138276568</v>
       </c>
       <c r="G35" s="2">
-        <v>45.453069138276568</v>
+        <v>43.397236472945892</v>
       </c>
       <c r="H35" s="1">
         <v>40</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>5.4530691382765681</v>
+        <v>3.3972364729458917</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1513,14 +1513,14 @@
         <v>45.429438877755523</v>
       </c>
       <c r="G36" s="2">
-        <v>45.429438877755523</v>
+        <v>43.231824649298602</v>
       </c>
       <c r="H36" s="1">
         <v>40</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="0"/>
-        <v>5.4294388777555227</v>
+        <v>3.231824649298602</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1543,14 +1543,14 @@
         <v>48.099658316633274</v>
       </c>
       <c r="G37" s="2">
-        <v>48.099658316633274</v>
+        <v>45.358548096192379</v>
       </c>
       <c r="H37" s="1">
         <v>40</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="0"/>
-        <v>8.0996583166332741</v>
+        <v>5.3585480961923793</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1573,14 +1573,14 @@
         <v>55.874014028056116</v>
       </c>
       <c r="G38" s="2">
-        <v>55.874014028056116</v>
+        <v>50.273642284569142</v>
       </c>
       <c r="H38" s="1">
         <v>40</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>15.874014028056116</v>
+        <v>10.273642284569142</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1603,14 +1603,14 @@
         <v>40.585235470941882</v>
       </c>
       <c r="G39" s="2">
-        <v>40.585235470941882</v>
+        <v>40.443453907815623</v>
       </c>
       <c r="H39" s="1">
         <v>40</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="0"/>
-        <v>0.58523547094188189</v>
+        <v>0.44345390781562344</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1633,14 +1633,14 @@
         <v>54.839284569138279</v>
       </c>
       <c r="G40" s="2">
-        <v>54.839284569138279</v>
+        <v>52.565765531062127</v>
       </c>
       <c r="H40" s="1">
         <v>48</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="0"/>
-        <v>6.8392845691382789</v>
+        <v>4.5657655310621266</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1663,14 +1663,14 @@
         <v>53.941104208416839</v>
       </c>
       <c r="G41" s="2">
-        <v>53.941104208416839</v>
+        <v>50.797472945891784</v>
       </c>
       <c r="H41" s="1">
         <v>48</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="0"/>
-        <v>5.9411042084168386</v>
+        <v>2.7974729458917835</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1693,14 +1693,14 @@
         <v>62.361545090180357</v>
       </c>
       <c r="G42" s="2">
-        <v>62.361545090180357</v>
+        <v>55.681328657314637</v>
       </c>
       <c r="H42" s="1">
         <v>48</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="0"/>
-        <v>14.361545090180357</v>
+        <v>7.6813286573146371</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1723,14 +1723,14 @@
         <v>52.537697394789589</v>
       </c>
       <c r="G43" s="2">
-        <v>52.537697394789589</v>
+        <v>51.274631262525048</v>
       </c>
       <c r="H43" s="1">
         <v>48</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="0"/>
-        <v>4.5376973947895891</v>
+        <v>3.2746312625250482</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1753,14 +1753,14 @@
         <v>51.807925851703402</v>
       </c>
       <c r="G44" s="2">
-        <v>51.807925851703402</v>
+        <v>50.657132264529061</v>
       </c>
       <c r="H44" s="1">
         <v>48</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="0"/>
-        <v>3.807925851703402</v>
+        <v>2.6571322645290607</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1783,14 +1783,14 @@
         <v>51.864062124248491</v>
       </c>
       <c r="G45" s="2">
-        <v>51.864062124248491</v>
+        <v>50.095769539078162</v>
       </c>
       <c r="H45" s="1">
         <v>48</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="0"/>
-        <v>3.8640621242484912</v>
+        <v>2.0957695390781623</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1813,14 +1813,14 @@
         <v>49.001112224448896</v>
       </c>
       <c r="G46" s="2">
-        <v>49.001112224448896</v>
+        <v>48.720430861723443</v>
       </c>
       <c r="H46" s="1">
         <v>48</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="0"/>
-        <v>1.0011122244488959</v>
+        <v>0.72043086172344317</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1843,14 +1843,14 @@
         <v>66.291084168336724</v>
       </c>
       <c r="G47" s="2">
-        <v>66.291084168336724</v>
+        <v>59.386322645290576</v>
       </c>
       <c r="H47" s="1">
         <v>48</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="0"/>
-        <v>18.291084168336724</v>
+        <v>11.386322645290576</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1873,14 +1873,14 @@
         <v>55.09189779559118</v>
       </c>
       <c r="G48" s="2">
-        <v>55.09189779559118</v>
+        <v>52.397356713426852</v>
       </c>
       <c r="H48" s="1">
         <v>48</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="0"/>
-        <v>7.0918977955911799</v>
+        <v>4.3973567134268521</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -1903,14 +1903,14 @@
         <v>55.428715430861715</v>
       </c>
       <c r="G49" s="2">
-        <v>55.428715430861715</v>
+        <v>52.762242484969939</v>
       </c>
       <c r="H49" s="1">
         <v>48</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>7.4287154308617147</v>
+        <v>4.7622424849699385</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -1933,14 +1933,14 @@
         <v>55.933941883767531</v>
       </c>
       <c r="G50" s="2">
-        <v>55.933941883767531</v>
+        <v>53.267468937875741</v>
       </c>
       <c r="H50" s="1">
         <v>48</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="0"/>
-        <v>7.9339418837675311</v>
+        <v>5.2674689378757407</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -1963,14 +1963,14 @@
         <v>54.839284569138279</v>
       </c>
       <c r="G51" s="2">
-        <v>54.839284569138279</v>
+        <v>52.593833667334671</v>
       </c>
       <c r="H51" s="1">
         <v>48</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="0"/>
-        <v>6.8392845691382789</v>
+        <v>4.5938336673346711</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -1993,14 +1993,14 @@
         <v>53.127128256513018</v>
       </c>
       <c r="G52" s="2">
-        <v>53.127128256513018</v>
+        <v>51.976334669338684</v>
       </c>
       <c r="H52" s="1">
         <v>48</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="0"/>
-        <v>5.1271282565130178</v>
+        <v>3.9763346693386836</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2023,14 +2023,14 @@
         <v>53.070991983967929</v>
       </c>
       <c r="G53" s="2">
-        <v>53.070991983967929</v>
+        <v>50.993949899799603</v>
       </c>
       <c r="H53" s="1">
         <v>48</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
-        <v>5.0709919839679287</v>
+        <v>2.9939498997996026</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2053,14 +2053,14 @@
         <v>55.737464929859712</v>
       </c>
       <c r="G54" s="2">
-        <v>55.737464929859712</v>
+        <v>53.884967935871749</v>
       </c>
       <c r="H54" s="1">
         <v>48</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="0"/>
-        <v>7.737464929859712</v>
+        <v>5.8849679358717495</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2083,14 +2083,14 @@
         <v>56.775985971943889</v>
       </c>
       <c r="G55" s="2">
-        <v>56.775985971943889</v>
+        <v>53.379741482965926</v>
       </c>
       <c r="H55" s="1">
         <v>48</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="0"/>
-        <v>8.7759859719438893</v>
+        <v>5.379741482965926</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2113,14 +2113,14 @@
         <v>57.281212424849699</v>
       </c>
       <c r="G56" s="2">
-        <v>57.281212424849699</v>
+        <v>54.109513026052106</v>
       </c>
       <c r="H56" s="1">
         <v>48</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" si="0"/>
-        <v>9.2812124248496986</v>
+        <v>6.109513026052106</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2143,14 +2143,14 @@
         <v>54.755080160320645</v>
       </c>
       <c r="G57" s="2">
-        <v>54.755080160320645</v>
+        <v>51.948266533066139</v>
       </c>
       <c r="H57" s="1">
         <v>48</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" si="0"/>
-        <v>6.7550801603206452</v>
+        <v>3.9482665330661391</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2173,14 +2173,14 @@
         <v>49.113384769539081</v>
       </c>
       <c r="G58" s="2">
-        <v>49.113384769539081</v>
+        <v>48.748498997995988</v>
       </c>
       <c r="H58" s="1">
         <v>48</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" si="0"/>
-        <v>1.1133847695390813</v>
+        <v>0.74849899799598774</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2203,14 +2203,14 @@
         <v>23.750929859719438</v>
       </c>
       <c r="G59" s="2">
-        <v>23.750929859719438</v>
+        <v>22.693649298597194</v>
       </c>
       <c r="H59" s="1">
         <v>19</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" si="0"/>
-        <v>4.750929859719438</v>
+        <v>3.6936492985971938</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2233,14 +2233,14 @@
         <v>23.060460921843685</v>
       </c>
       <c r="G60" s="2">
-        <v>23.060460921843685</v>
+        <v>22.722418837675352</v>
       </c>
       <c r="H60" s="1">
         <v>19</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="0"/>
-        <v>4.0604609218436849</v>
+        <v>3.7224188376753524</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2263,14 +2263,14 @@
         <v>22.974152304609216</v>
       </c>
       <c r="G61" s="2">
-        <v>22.974152304609216</v>
+        <v>22.600148296593193</v>
       </c>
       <c r="H61" s="1">
         <v>19</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="0"/>
-        <v>3.9741523046092162</v>
+        <v>3.6001482965931935</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2293,14 +2293,14 @@
         <v>22.686456913827662</v>
       </c>
       <c r="G62" s="2">
-        <v>22.686456913827662</v>
+        <v>22.298068136272544</v>
       </c>
       <c r="H62" s="1">
         <v>19</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" si="0"/>
-        <v>3.6864569138276622</v>
+        <v>3.2980681362725441</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2323,14 +2323,14 @@
         <v>23.492004008016025</v>
       </c>
       <c r="G63" s="2">
-        <v>23.492004008016025</v>
+        <v>22.377184368737474</v>
       </c>
       <c r="H63" s="1">
         <v>19</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" si="0"/>
-        <v>4.4920040080160248</v>
+        <v>3.3771843687374741</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2353,14 +2353,14 @@
         <v>22.348414829659319</v>
       </c>
       <c r="G64" s="2">
-        <v>22.348414829659319</v>
+        <v>22.211759519038072</v>
       </c>
       <c r="H64" s="1">
         <v>19</v>
       </c>
       <c r="I64" s="2">
         <f t="shared" si="0"/>
-        <v>3.348414829659319</v>
+        <v>3.2117595190380719</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2383,14 +2383,14 @@
         <v>22.91661322645291</v>
       </c>
       <c r="G65" s="2">
-        <v>22.91661322645291</v>
+        <v>21.808985971943887</v>
       </c>
       <c r="H65" s="1">
         <v>19</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" si="0"/>
-        <v>3.9166132264529097</v>
+        <v>2.808985971943887</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2413,14 +2413,14 @@
         <v>23.312194388777552</v>
       </c>
       <c r="G66" s="2">
-        <v>23.312194388777552</v>
+        <v>22.175797595190382</v>
       </c>
       <c r="H66" s="1">
         <v>19</v>
       </c>
       <c r="I66" s="2">
         <f t="shared" si="0"/>
-        <v>4.3121943887775522</v>
+        <v>3.1757975951903816</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2443,14 +2443,14 @@
         <v>26.376150300601203</v>
       </c>
       <c r="G67" s="2">
-        <v>26.376150300601203</v>
+        <v>25.714450901803602</v>
       </c>
       <c r="H67" s="1">
         <v>19</v>
       </c>
       <c r="I67" s="2">
         <f t="shared" ref="I67:I115" si="1">G67-H67</f>
-        <v>7.3761503006012035</v>
+        <v>6.7144509018036018</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2473,14 +2473,14 @@
         <v>24.635593186372745</v>
       </c>
       <c r="G68" s="2">
-        <v>24.635593186372745</v>
+        <v>22.758380761523046</v>
       </c>
       <c r="H68" s="1">
         <v>19</v>
       </c>
       <c r="I68" s="2">
         <f t="shared" si="1"/>
-        <v>5.6355931863727449</v>
+        <v>3.7583807615230462</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2503,14 +2503,14 @@
         <v>24.42701402805611</v>
       </c>
       <c r="G69" s="2">
-        <v>24.42701402805611</v>
+        <v>22.909420841683367</v>
       </c>
       <c r="H69" s="1">
         <v>19</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" si="1"/>
-        <v>5.4270140280561101</v>
+        <v>3.9094208416833673</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2533,14 +2533,14 @@
         <v>23.750929859719434</v>
       </c>
       <c r="G70" s="2">
-        <v>23.750929859719434</v>
+        <v>22.34122244488978</v>
       </c>
       <c r="H70" s="1">
         <v>19</v>
       </c>
       <c r="I70" s="2">
         <f t="shared" si="1"/>
-        <v>4.7509298597194345</v>
+        <v>3.3412224448897803</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2563,14 +2563,14 @@
         <v>23.470426853707416</v>
       </c>
       <c r="G71" s="2">
-        <v>23.470426853707416</v>
+        <v>22.30526052104209</v>
       </c>
       <c r="H71" s="1">
         <v>19</v>
       </c>
       <c r="I71" s="2">
         <f t="shared" si="1"/>
-        <v>4.4704268537074157</v>
+        <v>3.30526052104209</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2593,14 +2593,14 @@
         <v>24.779440881763527</v>
       </c>
       <c r="G72" s="2">
-        <v>24.779440881763527</v>
+        <v>23.434464929859715</v>
       </c>
       <c r="H72" s="1">
         <v>19</v>
       </c>
       <c r="I72" s="2">
         <f t="shared" si="1"/>
-        <v>5.7794408817635272</v>
+        <v>4.4344649298597147</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2623,14 +2623,14 @@
         <v>22.859074148296589</v>
       </c>
       <c r="G73" s="2">
-        <v>22.859074148296589</v>
+        <v>21.722677354709422</v>
       </c>
       <c r="H73" s="1">
         <v>19</v>
       </c>
       <c r="I73" s="2">
         <f t="shared" si="1"/>
-        <v>3.8590741482965889</v>
+        <v>2.7226773547094218</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2713,14 +2713,14 @@
         <v>26.707000000000001</v>
       </c>
       <c r="G76" s="2">
-        <v>26.707000000000001</v>
+        <v>25.52744889779559</v>
       </c>
       <c r="H76" s="1">
         <v>19</v>
       </c>
       <c r="I76" s="2">
         <f t="shared" si="1"/>
-        <v>7.7070000000000007</v>
+        <v>6.5274488977955905</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -2743,14 +2743,14 @@
         <v>23.664621242484973</v>
       </c>
       <c r="G77" s="2">
-        <v>23.664621242484973</v>
+        <v>22.787150300601208</v>
       </c>
       <c r="H77" s="1">
         <v>19</v>
       </c>
       <c r="I77" s="2">
         <f t="shared" si="1"/>
-        <v>4.6646212424849729</v>
+        <v>3.7871503006012084</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -2773,14 +2773,14 @@
         <v>50.85019438877756</v>
       </c>
       <c r="G78" s="2">
-        <v>50.85019438877756</v>
+        <v>49.816354709418839</v>
       </c>
       <c r="H78" s="1">
         <v>45</v>
       </c>
       <c r="I78" s="2">
         <f t="shared" si="1"/>
-        <v>5.8501943887775596</v>
+        <v>4.8163547094188388</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -2803,14 +2803,14 @@
         <v>51.2440380761523</v>
       </c>
       <c r="G79" s="2">
-        <v>51.2440380761523</v>
+        <v>49.570202404809628</v>
       </c>
       <c r="H79" s="1">
         <v>45</v>
       </c>
       <c r="I79" s="2">
         <f t="shared" si="1"/>
-        <v>6.2440380761523002</v>
+        <v>4.5702024048096277</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -2833,14 +2833,14 @@
         <v>53.016334669338676</v>
       </c>
       <c r="G80" s="2">
-        <v>53.016334669338676</v>
+        <v>50.38250501002004</v>
       </c>
       <c r="H80" s="1">
         <v>45</v>
       </c>
       <c r="I80" s="2">
         <f t="shared" si="1"/>
-        <v>8.0163346693386757</v>
+        <v>5.38250501002004</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -2863,14 +2863,14 @@
         <v>46.493298597194382</v>
       </c>
       <c r="G81" s="2">
-        <v>46.493298597194382</v>
+        <v>46.000993987975946</v>
       </c>
       <c r="H81" s="1">
         <v>45</v>
       </c>
       <c r="I81" s="2">
         <f t="shared" si="1"/>
-        <v>1.4932985971943822</v>
+        <v>1.0009939879759457</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -2893,14 +2893,14 @@
         <v>52.819412825651298</v>
       </c>
       <c r="G82" s="2">
-        <v>52.819412825651298</v>
+        <v>50.259428857715427</v>
       </c>
       <c r="H82" s="1">
         <v>45</v>
       </c>
       <c r="I82" s="2">
         <f t="shared" si="1"/>
-        <v>7.8194128256512982</v>
+        <v>5.2594288577154273</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -2923,14 +2923,14 @@
         <v>49.570202404809613</v>
       </c>
       <c r="G83" s="2">
-        <v>49.570202404809613</v>
+        <v>47.920981963927851</v>
       </c>
       <c r="H83" s="1">
         <v>45</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" si="1"/>
-        <v>4.5702024048096135</v>
+        <v>2.9209819639278507</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -2953,14 +2953,14 @@
         <v>47.600983967935868</v>
       </c>
       <c r="G84" s="2">
-        <v>47.600983967935868</v>
+        <v>46.7394509018036</v>
       </c>
       <c r="H84" s="1">
         <v>45</v>
       </c>
       <c r="I84" s="2">
         <f t="shared" si="1"/>
-        <v>2.6009839679358677</v>
+        <v>1.7394509018036004</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -2983,14 +2983,14 @@
         <v>52.819412825651298</v>
       </c>
       <c r="G85" s="2">
-        <v>52.819412825651298</v>
+        <v>50.210198396793587</v>
       </c>
       <c r="H85" s="1">
         <v>45</v>
       </c>
       <c r="I85" s="2">
         <f t="shared" si="1"/>
-        <v>7.8194128256512982</v>
+        <v>5.2101983967935865</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3013,14 +3013,14 @@
         <v>60.720901803607205</v>
       </c>
       <c r="G86" s="2">
-        <v>60.720901803607205</v>
+        <v>59.736292585170347</v>
       </c>
       <c r="H86" s="1">
         <v>45</v>
       </c>
       <c r="I86" s="2">
         <f t="shared" si="1"/>
-        <v>15.720901803607205</v>
+        <v>14.736292585170347</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3043,14 +3043,14 @@
         <v>58.410916270040083</v>
       </c>
       <c r="G87" s="2">
-        <v>58.410916270040083</v>
+        <v>48.93020641282564</v>
       </c>
       <c r="H87" s="1">
         <v>45</v>
       </c>
       <c r="I87" s="2">
         <f t="shared" si="1"/>
-        <v>13.410916270040083</v>
+        <v>3.9302064128256404</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3073,14 +3073,14 @@
         <v>58.677837675350709</v>
       </c>
       <c r="G88" s="2">
-        <v>58.677837675350709</v>
+        <v>54.394787575150296</v>
       </c>
       <c r="H88" s="1">
         <v>45</v>
       </c>
       <c r="I88" s="2">
         <f t="shared" si="1"/>
-        <v>13.677837675350709</v>
+        <v>9.3947875751502963</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3103,14 +3103,14 @@
         <v>49.693278557114219</v>
       </c>
       <c r="G89" s="2">
-        <v>49.693278557114219</v>
+        <v>48.290210420841674</v>
       </c>
       <c r="H89" s="1">
         <v>45</v>
       </c>
       <c r="I89" s="2">
         <f t="shared" si="1"/>
-        <v>4.693278557114219</v>
+        <v>3.2902104208416745</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3133,14 +3133,14 @@
         <v>54.985553106212421</v>
       </c>
       <c r="G90" s="2">
-        <v>54.985553106212421</v>
+        <v>50.357889779559123</v>
       </c>
       <c r="H90" s="1">
         <v>45</v>
       </c>
       <c r="I90" s="2">
         <f t="shared" si="1"/>
-        <v>9.9855531062124214</v>
+        <v>5.3578897795591232</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3163,14 +3163,14 @@
         <v>57.077847695390766</v>
       </c>
       <c r="G91" s="2">
-        <v>57.077847695390766</v>
+        <v>53.065565130260516</v>
       </c>
       <c r="H91" s="1">
         <v>45</v>
       </c>
       <c r="I91" s="2">
         <f t="shared" si="1"/>
-        <v>12.077847695390766</v>
+        <v>8.0655651302605165</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3193,14 +3193,14 @@
         <v>48.21636472945891</v>
       </c>
       <c r="G92" s="2">
-        <v>48.21636472945891</v>
+        <v>47.010218436873743</v>
       </c>
       <c r="H92" s="1">
         <v>45</v>
       </c>
       <c r="I92" s="2">
         <f t="shared" si="1"/>
-        <v>3.2163647294589097</v>
+        <v>2.0102184368737426</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3223,14 +3223,14 @@
         <v>62.591659318637269</v>
       </c>
       <c r="G93" s="2">
-        <v>62.591659318637269</v>
+        <v>56.807080160320631</v>
       </c>
       <c r="H93" s="1">
         <v>45</v>
       </c>
       <c r="I93" s="2">
         <f t="shared" si="1"/>
-        <v>17.591659318637269</v>
+        <v>11.807080160320631</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3253,14 +3253,14 @@
         <v>59.440909819639288</v>
       </c>
       <c r="G94" s="2">
-        <v>59.440909819639288</v>
+        <v>53.680945891783566</v>
       </c>
       <c r="H94" s="1">
         <v>45</v>
       </c>
       <c r="I94" s="2">
         <f t="shared" si="1"/>
-        <v>14.440909819639288</v>
+        <v>8.6809458917835656</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3283,14 +3283,14 @@
         <v>61.188591182364725</v>
       </c>
       <c r="G95" s="2">
-        <v>61.188591182364725</v>
+        <v>55.280935871743502</v>
       </c>
       <c r="H95" s="1">
         <v>45</v>
       </c>
       <c r="I95" s="2">
         <f t="shared" si="1"/>
-        <v>16.188591182364725</v>
+        <v>10.280935871743502</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3313,14 +3313,14 @@
         <v>54.985553106212436</v>
       </c>
       <c r="G96" s="2">
-        <v>54.985553106212436</v>
+        <v>51.687112224448882</v>
       </c>
       <c r="H96" s="1">
         <v>45</v>
       </c>
       <c r="I96" s="2">
         <f t="shared" si="1"/>
-        <v>9.9855531062124356</v>
+        <v>6.6871122244488816</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3343,14 +3343,14 @@
         <v>56.072450901803606</v>
       </c>
       <c r="G97" s="2">
-        <v>56.072450901803606</v>
+        <v>54.78254308617236</v>
       </c>
       <c r="H97" s="1">
         <v>52</v>
       </c>
       <c r="I97" s="2">
         <f t="shared" si="1"/>
-        <v>4.0724509018036059</v>
+        <v>2.7825430861723603</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3373,14 +3373,14 @@
         <v>53.413661322645297</v>
       </c>
       <c r="G98" s="2">
-        <v>53.413661322645297</v>
+        <v>53.071440881763522</v>
       </c>
       <c r="H98" s="1">
         <v>52</v>
       </c>
       <c r="I98" s="2">
         <f t="shared" si="1"/>
-        <v>1.4136613226452965</v>
+        <v>1.0714408817635217</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3403,14 +3403,14 @@
         <v>53.808531062124253</v>
       </c>
       <c r="G99" s="2">
-        <v>53.808531062124253</v>
+        <v>53.3346873747495</v>
       </c>
       <c r="H99" s="1">
         <v>52</v>
       </c>
       <c r="I99" s="2">
         <f t="shared" si="1"/>
-        <v>1.8085310621242527</v>
+        <v>1.3346873747494996</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -3433,14 +3433,14 @@
         <v>54.045452905811629</v>
       </c>
       <c r="G100" s="2">
-        <v>54.045452905811629</v>
+        <v>53.518959919839681</v>
       </c>
       <c r="H100" s="1">
         <v>52</v>
       </c>
       <c r="I100" s="2">
         <f t="shared" si="1"/>
-        <v>2.0454529058116293</v>
+        <v>1.5189599198396806</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -3463,14 +3463,14 @@
         <v>54.019128256513028</v>
       </c>
       <c r="G101" s="2">
-        <v>54.019128256513028</v>
+        <v>53.361012024048094</v>
       </c>
       <c r="H101" s="1">
         <v>52</v>
       </c>
       <c r="I101" s="2">
         <f t="shared" si="1"/>
-        <v>2.019128256513028</v>
+        <v>1.3610120240480938</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -3493,14 +3493,14 @@
         <v>52.887168336673348</v>
       </c>
       <c r="G102" s="2">
-        <v>52.887168336673348</v>
+        <v>52.702895791583167</v>
       </c>
       <c r="H102" s="1">
         <v>52</v>
       </c>
       <c r="I102" s="2">
         <f t="shared" si="1"/>
-        <v>0.88716833667334782</v>
+        <v>0.70289579158316684</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -3523,14 +3523,14 @@
         <v>53.887505010020035</v>
       </c>
       <c r="G103" s="2">
-        <v>53.887505010020035</v>
+        <v>53.413661322645297</v>
       </c>
       <c r="H103" s="1">
         <v>52</v>
       </c>
       <c r="I103" s="2">
         <f t="shared" si="1"/>
-        <v>1.8875050100200355</v>
+        <v>1.4136613226452965</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -3553,14 +3553,14 @@
         <v>53.466310621242485</v>
       </c>
       <c r="G104" s="2">
-        <v>53.466310621242485</v>
+        <v>53.124090180360724</v>
       </c>
       <c r="H104" s="1">
         <v>52</v>
       </c>
       <c r="I104" s="2">
         <f t="shared" si="1"/>
-        <v>1.466310621242485</v>
+        <v>1.1240901803607244</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -3583,14 +3583,14 @@
         <v>53.466310621242485</v>
       </c>
       <c r="G105" s="2">
-        <v>53.466310621242485</v>
+        <v>53.124090180360724</v>
       </c>
       <c r="H105" s="1">
         <v>52</v>
       </c>
       <c r="I105" s="2">
         <f t="shared" si="1"/>
-        <v>1.466310621242485</v>
+        <v>1.1240901803607244</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -3613,14 +3613,14 @@
         <v>60.942511022044094</v>
       </c>
       <c r="G106" s="2">
-        <v>60.942511022044094</v>
+        <v>57.730903807615242</v>
       </c>
       <c r="H106" s="1">
         <v>52</v>
       </c>
       <c r="I106" s="2">
         <f t="shared" si="1"/>
-        <v>8.9425110220440942</v>
+        <v>5.7309038076152419</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -3643,14 +3643,14 @@
         <v>57.309709418837684</v>
       </c>
       <c r="G107" s="2">
-        <v>57.309709418837684</v>
+        <v>55.335360721442889</v>
       </c>
       <c r="H107" s="1">
         <v>52</v>
       </c>
       <c r="I107" s="2">
         <f t="shared" si="1"/>
-        <v>5.3097094188376843</v>
+        <v>3.3353607214428891</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -3673,14 +3673,14 @@
         <v>58.125773547094191</v>
       </c>
       <c r="G108" s="2">
-        <v>58.125773547094191</v>
+        <v>56.335697394789584</v>
       </c>
       <c r="H108" s="1">
         <v>52</v>
       </c>
       <c r="I108" s="2">
         <f t="shared" si="1"/>
-        <v>6.125773547094191</v>
+        <v>4.3356973947895838</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -3703,14 +3703,14 @@
         <v>54.887841683366737</v>
       </c>
       <c r="G109" s="2">
-        <v>54.887841683366737</v>
+        <v>54.098102204408825</v>
       </c>
       <c r="H109" s="1">
         <v>52</v>
       </c>
       <c r="I109" s="2">
         <f t="shared" si="1"/>
-        <v>2.8878416833667373</v>
+        <v>2.0981022044088249</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -3733,14 +3733,14 @@
         <v>55.01946492985973</v>
       </c>
       <c r="G110" s="2">
-        <v>55.01946492985973</v>
+        <v>53.913829659318637</v>
       </c>
       <c r="H110" s="1">
         <v>52</v>
       </c>
       <c r="I110" s="2">
         <f t="shared" si="1"/>
-        <v>3.0194649298597298</v>
+        <v>1.9138296593186368</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -3763,14 +3763,14 @@
         <v>54.54562124248497</v>
       </c>
       <c r="G111" s="2">
-        <v>54.54562124248497</v>
+        <v>53.808531062124253</v>
       </c>
       <c r="H111" s="1">
         <v>52</v>
       </c>
       <c r="I111" s="2">
         <f t="shared" si="1"/>
-        <v>2.5456212424849696</v>
+        <v>1.8085310621242527</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -3793,14 +3793,14 @@
         <v>54.387673346693383</v>
       </c>
       <c r="G112" s="2">
-        <v>54.387673346693383</v>
+        <v>53.650583166332666</v>
       </c>
       <c r="H112" s="1">
         <v>52</v>
       </c>
       <c r="I112" s="2">
         <f t="shared" si="1"/>
-        <v>2.3876733466933828</v>
+        <v>1.650583166332666</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -3823,14 +3823,14 @@
         <v>60.889861723446899</v>
       </c>
       <c r="G113" s="2">
-        <v>60.889861723446899</v>
+        <v>57.493981963927851</v>
       </c>
       <c r="H113" s="1">
         <v>52</v>
       </c>
       <c r="I113" s="2">
         <f t="shared" si="1"/>
-        <v>8.8898617234468986</v>
+        <v>5.4939819639278511</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -3853,14 +3853,14 @@
         <v>58.546967935871749</v>
       </c>
       <c r="G114" s="2">
-        <v>58.546967935871749</v>
+        <v>56.283048096192388</v>
       </c>
       <c r="H114" s="1">
         <v>52</v>
       </c>
       <c r="I114" s="2">
         <f t="shared" si="1"/>
-        <v>6.5469679358717485</v>
+        <v>4.2830480961923882</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -3883,14 +3883,14 @@
         <v>56.519969939879765</v>
       </c>
       <c r="G115" s="2">
-        <v>56.519969939879765</v>
+        <v>54.993140280561136</v>
       </c>
       <c r="H115" s="1">
         <v>52</v>
       </c>
       <c r="I115" s="2">
         <f t="shared" si="1"/>
-        <v>4.5199699398797648</v>
+        <v>2.9931402805611356</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">

--- a/matlab/statistics/rawdataAnovaLoudnessDiffThresholdWithout9Sub.xlsx
+++ b/matlab/statistics/rawdataAnovaLoudnessDiffThresholdWithout9Sub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\thesis\matlab\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25B177A-8302-4CFB-A430-6200B6A03D9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E5729E-6EDE-45CA-BC3A-2B07DDAA494E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{7AF3A03D-CE9E-409E-9E62-EADF04CEEE14}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,14 +493,14 @@
         <v>17.127966933867736</v>
       </c>
       <c r="G2" s="2">
-        <v>16.195573146292585</v>
+        <v>16.145481490745372</v>
       </c>
       <c r="H2" s="1">
         <v>13</v>
       </c>
       <c r="I2" s="2">
         <f>G2-H2</f>
-        <v>3.1955731462925847</v>
+        <v>3.1454814907453716</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -523,14 +523,14 @@
         <v>16.848982965931867</v>
       </c>
       <c r="G3" s="2">
-        <v>15.637605210420842</v>
+        <v>15.562693596798399</v>
       </c>
       <c r="H3" s="1">
         <v>13</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I66" si="0">G3-H3</f>
-        <v>2.6376052104208423</v>
+        <v>2.5626935967983986</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -553,14 +553,14 @@
         <v>17.986943887775549</v>
       </c>
       <c r="G4" s="2">
-        <v>16.430507014028059</v>
+        <v>16.332413456728361</v>
       </c>
       <c r="H4" s="1">
         <v>13</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>3.4305070140280591</v>
+        <v>3.3324134567283608</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -583,14 +583,14 @@
         <v>17.399609218436876</v>
       </c>
       <c r="G5" s="2">
-        <v>16.026714428857712</v>
+        <v>15.934724862431214</v>
       </c>
       <c r="H5" s="1">
         <v>13</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>3.0267144288577121</v>
+        <v>2.9347248624312137</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -613,14 +613,14 @@
         <v>16.210256513026053</v>
       </c>
       <c r="G6" s="2">
-        <v>15.211787575150302</v>
+        <v>15.148511005502751</v>
       </c>
       <c r="H6" s="1">
         <v>13</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>2.2117875751503018</v>
+        <v>2.1485110055027512</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -643,14 +643,14 @@
         <v>17.03986673346693</v>
       </c>
       <c r="G7" s="2">
-        <v>16.775566132264526</v>
+        <v>16.76125737868934</v>
       </c>
       <c r="H7" s="1">
         <v>13</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>3.775566132264526</v>
+        <v>3.76125737868934</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -673,14 +673,14 @@
         <v>20.196790581162325</v>
       </c>
       <c r="G8" s="2">
-        <v>18.449469939879766</v>
+        <v>18.256713106553274</v>
       </c>
       <c r="H8" s="1">
         <v>13</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4494699398797657</v>
+        <v>5.2567131065532742</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -703,14 +703,14 @@
         <v>17.906185370741483</v>
       </c>
       <c r="G9" s="2">
-        <v>16.540632264529059</v>
+        <v>16.451536768384191</v>
       </c>
       <c r="H9" s="1">
         <v>13</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>3.5406322645290587</v>
+        <v>3.4515367683841909</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -763,14 +763,14 @@
         <v>17.054550100200405</v>
       </c>
       <c r="G11" s="2">
-        <v>15.982664328657314</v>
+        <v>15.91639819909955</v>
       </c>
       <c r="H11" s="1">
         <v>13</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>2.9826643286573145</v>
+        <v>2.9163981990995502</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -793,14 +793,14 @@
         <v>20.673999999999999</v>
       </c>
       <c r="G12" s="2">
-        <v>20.196790581162325</v>
+        <v>20.648342671335669</v>
       </c>
       <c r="H12" s="1">
         <v>13</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>7.1967905811623254</v>
+        <v>7.6483426713356693</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -823,14 +823,14 @@
         <v>17.326192384769541</v>
       </c>
       <c r="G13" s="2">
-        <v>15.931272545090176</v>
+        <v>15.843091545772884</v>
       </c>
       <c r="H13" s="1">
         <v>13</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>2.9312725450901755</v>
+        <v>2.843091545772884</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -853,14 +853,14 @@
         <v>19.499330661322649</v>
       </c>
       <c r="G14" s="2">
-        <v>17.49505110220441</v>
+        <v>17.362371935967982</v>
       </c>
       <c r="H14" s="1">
         <v>13</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="0"/>
-        <v>4.4950511022044104</v>
+        <v>4.3623719359679818</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -883,14 +883,14 @@
         <v>18.97807114228457</v>
       </c>
       <c r="G15" s="2">
-        <v>17.172017034068141</v>
+        <v>17.054483991995998</v>
       </c>
       <c r="H15" s="1">
         <v>13</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>4.1720170340681406</v>
+        <v>4.0544839919959976</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -913,14 +913,14 @@
         <v>18.677062124248501</v>
       </c>
       <c r="G16" s="2">
-        <v>17.127966933867736</v>
+        <v>17.02882666333166</v>
       </c>
       <c r="H16" s="1">
         <v>13</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="0"/>
-        <v>4.1279669338677358</v>
+        <v>4.0288266633316603</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -943,14 +943,14 @@
         <v>20.380332665330663</v>
       </c>
       <c r="G17" s="2">
-        <v>18.677062124248497</v>
+        <v>18.452808404202099</v>
       </c>
       <c r="H17" s="1">
         <v>13</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="0"/>
-        <v>5.6770621242484971</v>
+        <v>5.4528084042020986</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -973,14 +973,14 @@
         <v>17.428975951903809</v>
       </c>
       <c r="G18" s="2">
-        <v>15.857855711422845</v>
+        <v>15.756956228114062</v>
       </c>
       <c r="H18" s="1">
         <v>13</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="0"/>
-        <v>2.8578557114228449</v>
+        <v>2.7569562281140616</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1003,14 +1003,14 @@
         <v>20.101348697394787</v>
       </c>
       <c r="G19" s="2">
-        <v>18.28061122244489</v>
+        <v>18.067948474237127</v>
       </c>
       <c r="H19" s="1">
         <v>13</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="0"/>
-        <v>5.2806112224448896</v>
+        <v>5.0679484742371272</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1033,14 +1033,14 @@
         <v>16.8563246492986</v>
       </c>
       <c r="G20" s="2">
-        <v>16.386456913827654</v>
+        <v>16.367234117058526</v>
       </c>
       <c r="H20" s="1">
         <v>13</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>3.3864569138276543</v>
+        <v>3.3672341170585263</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1063,14 +1063,14 @@
         <v>45.949304609218423</v>
       </c>
       <c r="G21" s="2">
-        <v>44.011623246492988</v>
+        <v>43.887762381190591</v>
       </c>
       <c r="H21" s="1">
         <v>40</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
-        <v>4.011623246492988</v>
+        <v>3.8877623811905906</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1093,14 +1093,14 @@
         <v>46.374649298597198</v>
       </c>
       <c r="G22" s="2">
-        <v>43.822581162324646</v>
+        <v>43.67540920460231</v>
       </c>
       <c r="H22" s="1">
         <v>40</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="0"/>
-        <v>3.8225811623246457</v>
+        <v>3.6754092046023104</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1123,14 +1123,14 @@
         <v>46.043825651302598</v>
       </c>
       <c r="G23" s="2">
-        <v>44.20066533066133</v>
+        <v>44.082419459729863</v>
       </c>
       <c r="H23" s="1">
         <v>40</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="0"/>
-        <v>4.2006653306613302</v>
+        <v>4.0824194597298629</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1153,14 +1153,14 @@
         <v>46.941775551102189</v>
       </c>
       <c r="G24" s="2">
-        <v>44.602379759519032</v>
+        <v>44.454037518759378</v>
       </c>
       <c r="H24" s="1">
         <v>40</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="0"/>
-        <v>4.6023797595190317</v>
+        <v>4.4540375187593781</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1183,14 +1183,14 @@
         <v>44.153404809619239</v>
       </c>
       <c r="G25" s="2">
-        <v>43.184564128256518</v>
+        <v>43.138627563781888</v>
       </c>
       <c r="H25" s="1">
         <v>40</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="0"/>
-        <v>3.1845641282565182</v>
+        <v>3.1386275637818883</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1213,14 +1213,14 @@
         <v>46.303758517034069</v>
       </c>
       <c r="G26" s="2">
-        <v>43.98799298597195</v>
+        <v>43.852370185092546</v>
       </c>
       <c r="H26" s="1">
         <v>40</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="0"/>
-        <v>3.9879929859719496</v>
+        <v>3.8523701850925463</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1243,14 +1243,14 @@
         <v>40.585235470941882</v>
       </c>
       <c r="G27" s="2">
-        <v>40.443453907815623</v>
+        <v>40.442921960980492</v>
       </c>
       <c r="H27" s="1">
         <v>40</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>0.44345390781562344</v>
+        <v>0.44292196098049175</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1273,14 +1273,14 @@
         <v>50.037339679358723</v>
       </c>
       <c r="G28" s="2">
-        <v>46.587321643286586</v>
+        <v>46.359317408704356</v>
       </c>
       <c r="H28" s="1">
         <v>40</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
-        <v>6.587321643286586</v>
+        <v>6.3593174087043565</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1303,14 +1303,14 @@
         <v>60.245612224448898</v>
       </c>
       <c r="G29" s="2">
-        <v>52.683928857715422</v>
+        <v>51.833310405202589</v>
       </c>
       <c r="H29" s="1">
         <v>40</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="0"/>
-        <v>12.683928857715422</v>
+        <v>11.833310405202589</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1333,14 +1333,14 @@
         <v>46.870884769539074</v>
       </c>
       <c r="G30" s="2">
-        <v>44.318816633266529</v>
+        <v>44.153203851925952</v>
       </c>
       <c r="H30" s="1">
         <v>40</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>4.318816633266529</v>
+        <v>4.1532038519259515</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1363,14 +1363,14 @@
         <v>45.594850701402819</v>
       </c>
       <c r="G31" s="2">
-        <v>43.468127254509021</v>
+        <v>43.327385942971489</v>
       </c>
       <c r="H31" s="1">
         <v>40</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="0"/>
-        <v>3.4681272545090209</v>
+        <v>3.3273859429714889</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1393,14 +1393,14 @@
         <v>45.122245490981946</v>
       </c>
       <c r="G32" s="2">
-        <v>42.995522044088176</v>
+        <v>42.843692596298148</v>
       </c>
       <c r="H32" s="1">
         <v>40</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="0"/>
-        <v>2.995522044088176</v>
+        <v>2.8436925962981476</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1423,14 +1423,14 @@
         <v>42.286614228456912</v>
       </c>
       <c r="G33" s="2">
-        <v>41.648597194388778</v>
+        <v>41.599067033516754</v>
       </c>
       <c r="H33" s="1">
         <v>40</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>1.6485971943887776</v>
+        <v>1.5990670335167536</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1453,14 +1453,14 @@
         <v>47.01266633266534</v>
       </c>
       <c r="G34" s="2">
-        <v>44.082514028056103</v>
+        <v>43.893661080540269</v>
       </c>
       <c r="H34" s="1">
         <v>40</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="0"/>
-        <v>4.082514028056103</v>
+        <v>3.8936610805402694</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1483,14 +1483,14 @@
         <v>45.453069138276568</v>
       </c>
       <c r="G35" s="2">
-        <v>43.397236472945892</v>
+        <v>43.286095047523766</v>
       </c>
       <c r="H35" s="1">
         <v>40</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>3.3972364729458917</v>
+        <v>3.2860950475237658</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1513,14 +1513,14 @@
         <v>45.429438877755523</v>
       </c>
       <c r="G36" s="2">
-        <v>43.231824649298602</v>
+        <v>43.097336668334172</v>
       </c>
       <c r="H36" s="1">
         <v>40</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="0"/>
-        <v>3.231824649298602</v>
+        <v>3.0973366683341723</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1543,14 +1543,14 @@
         <v>48.099658316633274</v>
       </c>
       <c r="G37" s="2">
-        <v>45.358548096192379</v>
+        <v>45.191374937468737</v>
       </c>
       <c r="H37" s="1">
         <v>40</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="0"/>
-        <v>5.3585480961923793</v>
+        <v>5.191374937468737</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1573,14 +1573,14 @@
         <v>55.874014028056116</v>
       </c>
       <c r="G38" s="2">
-        <v>50.273642284569142</v>
+        <v>49.922131815907939</v>
       </c>
       <c r="H38" s="1">
         <v>40</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>10.273642284569142</v>
+        <v>9.9221318159079388</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1603,14 +1603,14 @@
         <v>40.585235470941882</v>
       </c>
       <c r="G39" s="2">
-        <v>40.443453907815623</v>
+        <v>40.442921960980492</v>
       </c>
       <c r="H39" s="1">
         <v>40</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="0"/>
-        <v>0.44345390781562344</v>
+        <v>0.44292196098049175</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1633,14 +1633,14 @@
         <v>54.839284569138279</v>
       </c>
       <c r="G40" s="2">
-        <v>52.565765531062127</v>
+        <v>52.425986493246619</v>
       </c>
       <c r="H40" s="1">
         <v>48</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="0"/>
-        <v>4.5657655310621266</v>
+        <v>4.4259864932466186</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1663,14 +1663,14 @@
         <v>53.941104208416839</v>
       </c>
       <c r="G41" s="2">
-        <v>50.797472945891784</v>
+        <v>50.590282641320677</v>
       </c>
       <c r="H41" s="1">
         <v>48</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="0"/>
-        <v>2.7974729458917835</v>
+        <v>2.5902826413206768</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1693,14 +1693,14 @@
         <v>62.361545090180357</v>
       </c>
       <c r="G42" s="2">
-        <v>55.681328657314637</v>
+        <v>55.249607303651821</v>
       </c>
       <c r="H42" s="1">
         <v>48</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="0"/>
-        <v>7.6813286573146371</v>
+        <v>7.2496073036518212</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1723,14 +1723,14 @@
         <v>52.537697394789589</v>
       </c>
       <c r="G43" s="2">
-        <v>51.274631262525048</v>
+        <v>51.199848424212107</v>
       </c>
       <c r="H43" s="1">
         <v>48</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="0"/>
-        <v>3.2746312625250482</v>
+        <v>3.1998484242121066</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1753,14 +1753,14 @@
         <v>51.807925851703402</v>
       </c>
       <c r="G44" s="2">
-        <v>50.657132264529061</v>
+        <v>50.583276138069039</v>
       </c>
       <c r="H44" s="1">
         <v>48</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="0"/>
-        <v>2.6571322645290607</v>
+        <v>2.5832761380690386</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1783,14 +1783,14 @@
         <v>51.864062124248491</v>
       </c>
       <c r="G45" s="2">
-        <v>50.095769539078162</v>
+        <v>50.036768884442225</v>
       </c>
       <c r="H45" s="1">
         <v>48</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="0"/>
-        <v>2.0957695390781623</v>
+        <v>2.0367688844422247</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1813,14 +1813,14 @@
         <v>49.001112224448896</v>
       </c>
       <c r="G46" s="2">
-        <v>48.720430861723443</v>
+        <v>48.684513756878438</v>
       </c>
       <c r="H46" s="1">
         <v>48</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="0"/>
-        <v>0.72043086172344317</v>
+        <v>0.68451375687843807</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1843,14 +1843,14 @@
         <v>66.291084168336724</v>
       </c>
       <c r="G47" s="2">
-        <v>59.386322645290576</v>
+        <v>58.907002001000492</v>
       </c>
       <c r="H47" s="1">
         <v>48</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="0"/>
-        <v>11.386322645290576</v>
+        <v>10.907002001000492</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1873,14 +1873,14 @@
         <v>55.09189779559118</v>
       </c>
       <c r="G48" s="2">
-        <v>52.397356713426852</v>
+        <v>52.25082391195599</v>
       </c>
       <c r="H48" s="1">
         <v>48</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="0"/>
-        <v>4.3973567134268521</v>
+        <v>4.2508239119559903</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -1903,14 +1903,14 @@
         <v>55.428715430861715</v>
       </c>
       <c r="G49" s="2">
-        <v>52.762242484969939</v>
+        <v>52.594142571285644</v>
       </c>
       <c r="H49" s="1">
         <v>48</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>4.7622424849699385</v>
+        <v>4.5941425712856443</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -1933,14 +1933,14 @@
         <v>55.933941883767531</v>
       </c>
       <c r="G50" s="2">
-        <v>53.267468937875741</v>
+        <v>53.112623811905955</v>
       </c>
       <c r="H50" s="1">
         <v>48</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="0"/>
-        <v>5.2674689378757407</v>
+        <v>5.1126238119059551</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -1963,14 +1963,14 @@
         <v>54.839284569138279</v>
       </c>
       <c r="G51" s="2">
-        <v>52.593833667334671</v>
+        <v>52.43299299649825</v>
       </c>
       <c r="H51" s="1">
         <v>48</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="0"/>
-        <v>4.5938336673346711</v>
+        <v>4.4329929964982497</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -1993,14 +1993,14 @@
         <v>53.127128256513018</v>
       </c>
       <c r="G52" s="2">
-        <v>51.976334669338684</v>
+        <v>51.907505252626315</v>
       </c>
       <c r="H52" s="1">
         <v>48</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="0"/>
-        <v>3.9763346693386836</v>
+        <v>3.907505252626315</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2023,14 +2023,14 @@
         <v>53.070991983967929</v>
       </c>
       <c r="G53" s="2">
-        <v>50.993949899799603</v>
+        <v>50.84251675837919</v>
       </c>
       <c r="H53" s="1">
         <v>48</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
-        <v>2.9939498997996026</v>
+        <v>2.8425167583791904</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2053,14 +2053,14 @@
         <v>55.737464929859712</v>
       </c>
       <c r="G54" s="2">
-        <v>53.884967935871749</v>
+        <v>53.757222111055526</v>
       </c>
       <c r="H54" s="1">
         <v>48</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="0"/>
-        <v>5.8849679358717495</v>
+        <v>5.7572221110555262</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2083,14 +2083,14 @@
         <v>56.775985971943889</v>
       </c>
       <c r="G55" s="2">
-        <v>53.379741482965926</v>
+        <v>53.168675837918961</v>
       </c>
       <c r="H55" s="1">
         <v>48</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="0"/>
-        <v>5.379741482965926</v>
+        <v>5.1686758379189612</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2113,14 +2113,14 @@
         <v>57.281212424849699</v>
       </c>
       <c r="G56" s="2">
-        <v>54.109513026052106</v>
+        <v>53.911365182591297</v>
       </c>
       <c r="H56" s="1">
         <v>48</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" si="0"/>
-        <v>6.109513026052106</v>
+        <v>5.9113651825912967</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2143,14 +2143,14 @@
         <v>54.755080160320645</v>
       </c>
       <c r="G57" s="2">
-        <v>51.948266533066139</v>
+        <v>51.753362181090544</v>
       </c>
       <c r="H57" s="1">
         <v>48</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" si="0"/>
-        <v>3.9482665330661391</v>
+        <v>3.7533621810905444</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2173,14 +2173,14 @@
         <v>49.113384769539081</v>
       </c>
       <c r="G58" s="2">
-        <v>48.748498997995988</v>
+        <v>48.740565782891444</v>
       </c>
       <c r="H58" s="1">
         <v>48</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" si="0"/>
-        <v>0.74849899799598774</v>
+        <v>0.74056578289144426</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2203,14 +2203,14 @@
         <v>23.750929859719438</v>
       </c>
       <c r="G59" s="2">
-        <v>22.693649298597194</v>
+        <v>22.638628814407205</v>
       </c>
       <c r="H59" s="1">
         <v>19</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" si="0"/>
-        <v>3.6936492985971938</v>
+        <v>3.6386288144072054</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2233,14 +2233,14 @@
         <v>23.060460921843685</v>
       </c>
       <c r="G60" s="2">
-        <v>22.722418837675352</v>
+        <v>22.701467733866934</v>
       </c>
       <c r="H60" s="1">
         <v>19</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="0"/>
-        <v>3.7224188376753524</v>
+        <v>3.7014677338669344</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2263,14 +2263,14 @@
         <v>22.974152304609216</v>
       </c>
       <c r="G61" s="2">
-        <v>22.600148296593193</v>
+        <v>22.588357678839422</v>
       </c>
       <c r="H61" s="1">
         <v>19</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="0"/>
-        <v>3.6001482965931935</v>
+        <v>3.5883576788394222</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2293,14 +2293,14 @@
         <v>22.686456913827662</v>
       </c>
       <c r="G62" s="2">
-        <v>22.298068136272544</v>
+        <v>22.28673086543272</v>
       </c>
       <c r="H62" s="1">
         <v>19</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" si="0"/>
-        <v>3.2980681362725441</v>
+        <v>3.2867308654327196</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2323,14 +2323,14 @@
         <v>23.492004008016025</v>
       </c>
       <c r="G63" s="2">
-        <v>22.377184368737474</v>
+        <v>22.313661830915464</v>
       </c>
       <c r="H63" s="1">
         <v>19</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" si="0"/>
-        <v>3.3771843687374741</v>
+        <v>3.3136618309154642</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2353,14 +2353,14 @@
         <v>22.348414829659319</v>
       </c>
       <c r="G64" s="2">
-        <v>22.211759519038072</v>
+        <v>22.207733366683343</v>
       </c>
       <c r="H64" s="1">
         <v>19</v>
       </c>
       <c r="I64" s="2">
         <f t="shared" si="0"/>
-        <v>3.2117595190380719</v>
+        <v>3.2077333666833425</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2383,14 +2383,14 @@
         <v>22.91661322645291</v>
       </c>
       <c r="G65" s="2">
-        <v>21.808985971943887</v>
+        <v>21.735543771885951</v>
       </c>
       <c r="H65" s="1">
         <v>19</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" si="0"/>
-        <v>2.808985971943887</v>
+        <v>2.7355437718859505</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2413,14 +2413,14 @@
         <v>23.312194388777552</v>
       </c>
       <c r="G66" s="2">
-        <v>22.175797595190382</v>
+        <v>22.108986493246626</v>
       </c>
       <c r="H66" s="1">
         <v>19</v>
       </c>
       <c r="I66" s="2">
         <f t="shared" si="0"/>
-        <v>3.1757975951903816</v>
+        <v>3.1089864932466256</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2443,14 +2443,14 @@
         <v>26.376150300601203</v>
       </c>
       <c r="G67" s="2">
-        <v>25.714450901803602</v>
+        <v>25.662078539269633</v>
       </c>
       <c r="H67" s="1">
         <v>19</v>
       </c>
       <c r="I67" s="2">
         <f t="shared" ref="I67:I115" si="1">G67-H67</f>
-        <v>6.7144509018036018</v>
+        <v>6.6620785392696327</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2473,14 +2473,14 @@
         <v>24.635593186372745</v>
       </c>
       <c r="G68" s="2">
-        <v>22.758380761523046</v>
+        <v>22.640424212106058</v>
       </c>
       <c r="H68" s="1">
         <v>19</v>
       </c>
       <c r="I68" s="2">
         <f t="shared" si="1"/>
-        <v>3.7583807615230462</v>
+        <v>3.6404242121060584</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2503,14 +2503,14 @@
         <v>24.42701402805611</v>
       </c>
       <c r="G69" s="2">
-        <v>22.909420841683367</v>
+        <v>22.819963981990998</v>
       </c>
       <c r="H69" s="1">
         <v>19</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" si="1"/>
-        <v>3.9094208416833673</v>
+        <v>3.8199639819909983</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2533,14 +2533,14 @@
         <v>23.750929859719434</v>
       </c>
       <c r="G70" s="2">
-        <v>22.34122244488978</v>
+        <v>22.247232116058033</v>
       </c>
       <c r="H70" s="1">
         <v>19</v>
       </c>
       <c r="I70" s="2">
         <f t="shared" si="1"/>
-        <v>3.3412224448897803</v>
+        <v>3.2472321160580329</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2563,14 +2563,14 @@
         <v>23.470426853707416</v>
       </c>
       <c r="G71" s="2">
-        <v>22.30526052104209</v>
+        <v>22.236459729864936</v>
       </c>
       <c r="H71" s="1">
         <v>19</v>
       </c>
       <c r="I71" s="2">
         <f t="shared" si="1"/>
-        <v>3.30526052104209</v>
+        <v>3.2364597298649365</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2593,14 +2593,14 @@
         <v>24.779440881763527</v>
       </c>
       <c r="G72" s="2">
-        <v>23.434464929859715</v>
+        <v>23.358583291645825</v>
       </c>
       <c r="H72" s="1">
         <v>19</v>
       </c>
       <c r="I72" s="2">
         <f t="shared" si="1"/>
-        <v>4.4344649298597147</v>
+        <v>4.3585832916458251</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2623,14 +2623,14 @@
         <v>22.859074148296589</v>
       </c>
       <c r="G73" s="2">
-        <v>21.722677354709422</v>
+        <v>21.649364682341172</v>
       </c>
       <c r="H73" s="1">
         <v>19</v>
       </c>
       <c r="I73" s="2">
         <f t="shared" si="1"/>
-        <v>2.7226773547094218</v>
+        <v>2.6493646823411723</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2713,14 +2713,14 @@
         <v>26.707000000000001</v>
       </c>
       <c r="G76" s="2">
-        <v>25.52744889779559</v>
+        <v>25.4717663831916</v>
       </c>
       <c r="H76" s="1">
         <v>19</v>
       </c>
       <c r="I76" s="2">
         <f t="shared" si="1"/>
-        <v>6.5274488977955905</v>
+        <v>6.4717663831915999</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -2743,14 +2743,14 @@
         <v>23.664621242484973</v>
       </c>
       <c r="G77" s="2">
-        <v>22.787150300601208</v>
+        <v>22.706853926963479</v>
       </c>
       <c r="H77" s="1">
         <v>19</v>
       </c>
       <c r="I77" s="2">
         <f t="shared" si="1"/>
-        <v>3.7871503006012084</v>
+        <v>3.706853926963479</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -2773,14 +2773,14 @@
         <v>50.85019438877756</v>
       </c>
       <c r="G78" s="2">
-        <v>49.816354709418839</v>
+        <v>49.809188094047023</v>
       </c>
       <c r="H78" s="1">
         <v>45</v>
       </c>
       <c r="I78" s="2">
         <f t="shared" si="1"/>
-        <v>4.8163547094188388</v>
+        <v>4.8091880940470233</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -2803,14 +2803,14 @@
         <v>51.2440380761523</v>
       </c>
       <c r="G79" s="2">
-        <v>49.570202404809628</v>
+        <v>49.483525762881428</v>
       </c>
       <c r="H79" s="1">
         <v>45</v>
       </c>
       <c r="I79" s="2">
         <f t="shared" si="1"/>
-        <v>4.5702024048096277</v>
+        <v>4.4835257628814276</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -2833,14 +2833,14 @@
         <v>53.016334669338676</v>
       </c>
       <c r="G80" s="2">
-        <v>50.38250501002004</v>
+        <v>50.190151575787901</v>
       </c>
       <c r="H80" s="1">
         <v>45</v>
       </c>
       <c r="I80" s="2">
         <f t="shared" si="1"/>
-        <v>5.38250501002004</v>
+        <v>5.1901515757879011</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -2863,14 +2863,14 @@
         <v>46.493298597194382</v>
       </c>
       <c r="G81" s="2">
-        <v>46.000993987975946</v>
+        <v>45.95654127063532</v>
       </c>
       <c r="H81" s="1">
         <v>45</v>
       </c>
       <c r="I81" s="2">
         <f t="shared" si="1"/>
-        <v>1.0009939879759457</v>
+        <v>0.95654127063532002</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -2893,14 +2893,14 @@
         <v>52.819412825651298</v>
       </c>
       <c r="G82" s="2">
-        <v>50.259428857715427</v>
+        <v>50.097982991495741</v>
       </c>
       <c r="H82" s="1">
         <v>45</v>
       </c>
       <c r="I82" s="2">
         <f t="shared" si="1"/>
-        <v>5.2594288577154273</v>
+        <v>5.0979829914957406</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -2923,14 +2923,14 @@
         <v>49.570202404809613</v>
       </c>
       <c r="G83" s="2">
-        <v>47.920981963927851</v>
+        <v>47.799912956478231</v>
       </c>
       <c r="H83" s="1">
         <v>45</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" si="1"/>
-        <v>2.9209819639278507</v>
+        <v>2.7999129564782308</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -2953,14 +2953,14 @@
         <v>47.600983967935868</v>
       </c>
       <c r="G84" s="2">
-        <v>46.7394509018036</v>
+        <v>46.700034517258629</v>
       </c>
       <c r="H84" s="1">
         <v>45</v>
       </c>
       <c r="I84" s="2">
         <f t="shared" si="1"/>
-        <v>1.7394509018036004</v>
+        <v>1.7000345172586293</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -2983,14 +2983,14 @@
         <v>52.819412825651298</v>
       </c>
       <c r="G85" s="2">
-        <v>50.210198396793587</v>
+        <v>50.054970985492751</v>
       </c>
       <c r="H85" s="1">
         <v>45</v>
       </c>
       <c r="I85" s="2">
         <f t="shared" si="1"/>
-        <v>5.2101983967935865</v>
+        <v>5.0549709854927514</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3013,14 +3013,14 @@
         <v>60.720901803607205</v>
       </c>
       <c r="G86" s="2">
-        <v>59.736292585170347</v>
+        <v>59.689660330165076</v>
       </c>
       <c r="H86" s="1">
         <v>45</v>
       </c>
       <c r="I86" s="2">
         <f t="shared" si="1"/>
-        <v>14.736292585170347</v>
+        <v>14.689660330165076</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3043,14 +3043,14 @@
         <v>58.410916270040083</v>
       </c>
       <c r="G87" s="2">
-        <v>48.93020641282564</v>
+        <v>48.709309654827408</v>
       </c>
       <c r="H87" s="1">
         <v>45</v>
       </c>
       <c r="I87" s="2">
         <f t="shared" si="1"/>
-        <v>3.9302064128256404</v>
+        <v>3.7093096548274076</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3073,14 +3073,14 @@
         <v>58.677837675350709</v>
       </c>
       <c r="G88" s="2">
-        <v>54.394787575150296</v>
+        <v>54.147256128064029</v>
       </c>
       <c r="H88" s="1">
         <v>45</v>
       </c>
       <c r="I88" s="2">
         <f t="shared" si="1"/>
-        <v>9.3947875751502963</v>
+        <v>9.1472561280640292</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3103,14 +3103,14 @@
         <v>49.693278557114219</v>
       </c>
       <c r="G89" s="2">
-        <v>48.290210420841674</v>
+        <v>48.193165582791401</v>
       </c>
       <c r="H89" s="1">
         <v>45</v>
       </c>
       <c r="I89" s="2">
         <f t="shared" si="1"/>
-        <v>3.2902104208416745</v>
+        <v>3.1931655827914014</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3133,14 +3133,14 @@
         <v>54.985553106212421</v>
       </c>
       <c r="G90" s="2">
-        <v>50.357889779559123</v>
+        <v>50.386777888944472</v>
       </c>
       <c r="H90" s="1">
         <v>45</v>
       </c>
       <c r="I90" s="2">
         <f t="shared" si="1"/>
-        <v>5.3578897795591232</v>
+        <v>5.3867778889444722</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3163,14 +3163,14 @@
         <v>57.077847695390766</v>
       </c>
       <c r="G91" s="2">
-        <v>53.065565130260516</v>
+        <v>52.813883941970985</v>
       </c>
       <c r="H91" s="1">
         <v>45</v>
       </c>
       <c r="I91" s="2">
         <f t="shared" si="1"/>
-        <v>8.0655651302605165</v>
+        <v>7.8138839419709853</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3193,14 +3193,14 @@
         <v>48.21636472945891</v>
       </c>
       <c r="G92" s="2">
-        <v>47.010218436873743</v>
+        <v>46.921239119559779</v>
       </c>
       <c r="H92" s="1">
         <v>45</v>
       </c>
       <c r="I92" s="2">
         <f t="shared" si="1"/>
-        <v>2.0102184368737426</v>
+        <v>1.9212391195597789</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3223,14 +3223,14 @@
         <v>62.591659318637269</v>
       </c>
       <c r="G93" s="2">
-        <v>56.807080160320631</v>
+        <v>56.463759879939964</v>
       </c>
       <c r="H93" s="1">
         <v>45</v>
       </c>
       <c r="I93" s="2">
         <f t="shared" si="1"/>
-        <v>11.807080160320631</v>
+        <v>11.463759879939964</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3253,14 +3253,14 @@
         <v>59.440909819639288</v>
       </c>
       <c r="G94" s="2">
-        <v>53.680945891783566</v>
+        <v>53.293160580290149</v>
       </c>
       <c r="H94" s="1">
         <v>45</v>
       </c>
       <c r="I94" s="2">
         <f t="shared" si="1"/>
-        <v>8.6809458917835656</v>
+        <v>8.2931605802901487</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3283,14 +3283,14 @@
         <v>61.188591182364725</v>
       </c>
       <c r="G95" s="2">
-        <v>55.280935871743502</v>
+        <v>54.915327663831917</v>
       </c>
       <c r="H95" s="1">
         <v>45</v>
       </c>
       <c r="I95" s="2">
         <f t="shared" si="1"/>
-        <v>10.280935871743502</v>
+        <v>9.915327663831917</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3313,14 +3313,14 @@
         <v>54.985553106212436</v>
       </c>
       <c r="G96" s="2">
-        <v>51.687112224448882</v>
+        <v>51.49280090045022</v>
       </c>
       <c r="H96" s="1">
         <v>45</v>
       </c>
       <c r="I96" s="2">
         <f t="shared" si="1"/>
-        <v>6.6871122244488816</v>
+        <v>6.4928009004502201</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3343,14 +3343,14 @@
         <v>56.072450901803606</v>
       </c>
       <c r="G97" s="2">
-        <v>54.78254308617236</v>
+        <v>54.700092546273147</v>
       </c>
       <c r="H97" s="1">
         <v>52</v>
       </c>
       <c r="I97" s="2">
         <f t="shared" si="1"/>
-        <v>2.7825430861723603</v>
+        <v>2.7000925462731473</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3373,14 +3373,14 @@
         <v>53.413661322645297</v>
       </c>
       <c r="G98" s="2">
-        <v>53.071440881763522</v>
+        <v>53.063842421210609</v>
       </c>
       <c r="H98" s="1">
         <v>52</v>
       </c>
       <c r="I98" s="2">
         <f t="shared" si="1"/>
-        <v>1.0714408817635217</v>
+        <v>1.0638424212106088</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3403,14 +3403,14 @@
         <v>53.808531062124253</v>
       </c>
       <c r="G99" s="2">
-        <v>53.3346873747495</v>
+        <v>53.28069484742371</v>
       </c>
       <c r="H99" s="1">
         <v>52</v>
       </c>
       <c r="I99" s="2">
         <f t="shared" si="1"/>
-        <v>1.3346873747494996</v>
+        <v>1.2806948474237103</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -3433,14 +3433,14 @@
         <v>54.045452905811629</v>
       </c>
       <c r="G100" s="2">
-        <v>53.518959919839681</v>
+        <v>53.504118559279647</v>
       </c>
       <c r="H100" s="1">
         <v>52</v>
       </c>
       <c r="I100" s="2">
         <f t="shared" si="1"/>
-        <v>1.5189599198396806</v>
+        <v>1.5041185592796467</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -3463,14 +3463,14 @@
         <v>54.019128256513028</v>
       </c>
       <c r="G101" s="2">
-        <v>53.361012024048094</v>
+        <v>53.306979989995007</v>
       </c>
       <c r="H101" s="1">
         <v>52</v>
       </c>
       <c r="I101" s="2">
         <f t="shared" si="1"/>
-        <v>1.3610120240480938</v>
+        <v>1.306979989995007</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -3493,14 +3493,14 @@
         <v>52.887168336673348</v>
       </c>
       <c r="G102" s="2">
-        <v>52.702895791583167</v>
+        <v>52.702421710855425</v>
       </c>
       <c r="H102" s="1">
         <v>52</v>
       </c>
       <c r="I102" s="2">
         <f t="shared" si="1"/>
-        <v>0.70289579158316684</v>
+        <v>0.70242171085542537</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -3523,14 +3523,14 @@
         <v>53.887505010020035</v>
       </c>
       <c r="G103" s="2">
-        <v>53.413661322645297</v>
+        <v>53.385835417708847</v>
       </c>
       <c r="H103" s="1">
         <v>52</v>
       </c>
       <c r="I103" s="2">
         <f t="shared" si="1"/>
-        <v>1.4136613226452965</v>
+        <v>1.3858354177088472</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -3553,14 +3553,14 @@
         <v>53.466310621242485</v>
       </c>
       <c r="G104" s="2">
-        <v>53.124090180360724</v>
+        <v>53.090127563781898</v>
       </c>
       <c r="H104" s="1">
         <v>52</v>
       </c>
       <c r="I104" s="2">
         <f t="shared" si="1"/>
-        <v>1.1240901803607244</v>
+        <v>1.0901275637818983</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -3583,14 +3583,14 @@
         <v>53.466310621242485</v>
       </c>
       <c r="G105" s="2">
-        <v>53.124090180360724</v>
+        <v>53.116412706353181</v>
       </c>
       <c r="H105" s="1">
         <v>52</v>
       </c>
       <c r="I105" s="2">
         <f t="shared" si="1"/>
-        <v>1.1240901803607244</v>
+        <v>1.1164127063531808</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -3613,14 +3613,14 @@
         <v>60.942511022044094</v>
       </c>
       <c r="G106" s="2">
-        <v>57.730903807615242</v>
+        <v>57.506031515757869</v>
       </c>
       <c r="H106" s="1">
         <v>52</v>
       </c>
       <c r="I106" s="2">
         <f t="shared" si="1"/>
-        <v>5.7309038076152419</v>
+        <v>5.5060315157578685</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -3643,14 +3643,14 @@
         <v>57.309709418837684</v>
       </c>
       <c r="G107" s="2">
-        <v>55.335360721442889</v>
+        <v>55.21922411205604</v>
       </c>
       <c r="H107" s="1">
         <v>52</v>
       </c>
       <c r="I107" s="2">
         <f t="shared" si="1"/>
-        <v>3.3353607214428891</v>
+        <v>3.2192241120560396</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -3673,14 +3673,14 @@
         <v>58.125773547094191</v>
       </c>
       <c r="G108" s="2">
-        <v>56.335697394789584</v>
+        <v>56.244344672336169</v>
       </c>
       <c r="H108" s="1">
         <v>52</v>
       </c>
       <c r="I108" s="2">
         <f t="shared" si="1"/>
-        <v>4.3356973947895838</v>
+        <v>4.2443446723361689</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -3703,14 +3703,14 @@
         <v>54.887841683366737</v>
       </c>
       <c r="G109" s="2">
-        <v>54.098102204408825</v>
+        <v>54.036392696348173</v>
       </c>
       <c r="H109" s="1">
         <v>52</v>
       </c>
       <c r="I109" s="2">
         <f t="shared" si="1"/>
-        <v>2.0981022044088249</v>
+        <v>2.0363926963481731</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -3733,14 +3733,14 @@
         <v>55.01946492985973</v>
       </c>
       <c r="G110" s="2">
-        <v>53.913829659318637</v>
+        <v>53.826111555777892</v>
       </c>
       <c r="H110" s="1">
         <v>52</v>
       </c>
       <c r="I110" s="2">
         <f t="shared" si="1"/>
-        <v>1.9138296593186368</v>
+        <v>1.8261115557778922</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -3763,14 +3763,14 @@
         <v>54.54562124248497</v>
       </c>
       <c r="G111" s="2">
-        <v>53.808531062124253</v>
+        <v>53.773541270635327</v>
       </c>
       <c r="H111" s="1">
         <v>52</v>
       </c>
       <c r="I111" s="2">
         <f t="shared" si="1"/>
-        <v>1.8085310621242527</v>
+        <v>1.7735412706353273</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -3793,14 +3793,14 @@
         <v>54.387673346693383</v>
       </c>
       <c r="G112" s="2">
-        <v>53.650583166332666</v>
+        <v>53.609259129564784</v>
       </c>
       <c r="H112" s="1">
         <v>52</v>
       </c>
       <c r="I112" s="2">
         <f t="shared" si="1"/>
-        <v>1.650583166332666</v>
+        <v>1.6092591295647836</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -3823,14 +3823,14 @@
         <v>60.889861723446899</v>
       </c>
       <c r="G113" s="2">
-        <v>57.493981963927851</v>
+        <v>57.276036518259133</v>
       </c>
       <c r="H113" s="1">
         <v>52</v>
       </c>
       <c r="I113" s="2">
         <f t="shared" si="1"/>
-        <v>5.4939819639278511</v>
+        <v>5.2760365182591329</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -3853,14 +3853,14 @@
         <v>58.546967935871749</v>
       </c>
       <c r="G114" s="2">
-        <v>56.283048096192388</v>
+        <v>56.14577538769386</v>
       </c>
       <c r="H114" s="1">
         <v>52</v>
       </c>
       <c r="I114" s="2">
         <f t="shared" si="1"/>
-        <v>4.2830480961923882</v>
+        <v>4.1457753876938597</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -3883,14 +3883,14 @@
         <v>56.519969939879765</v>
       </c>
       <c r="G115" s="2">
-        <v>54.993140280561136</v>
+        <v>54.910373686843421</v>
       </c>
       <c r="H115" s="1">
         <v>52</v>
       </c>
       <c r="I115" s="2">
         <f t="shared" si="1"/>
-        <v>2.9931402805611356</v>
+        <v>2.9103736868434211</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
